--- a/sstp.xlsx
+++ b/sstp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,23 +463,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>178.35</v>
+        <v>230.7</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>&lt;a href="tlt.opengw.net:996"&gt;tlt.opengw.net:996&lt;/a&gt;</t>
+          <t>&lt;a href="vpn431396938.opengw.net"&gt;vpn431396938.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Download speed: 6.22 Mbps , Upload speed: 3.47 Mbps</t>
+          <t>Download speed: 6.33 Mbps , Upload speed: 2.55 Mbps</t>
         </is>
       </c>
     </row>
@@ -493,269 +493,269 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>220.75</v>
+        <v>237</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn431396938.opengw.net"&gt;vpn431396938.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn719329406.opengw.net:992"&gt;vpn719329406.opengw.net:992&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Download speed: 8.37 Mbps , Upload speed: 2.26 Mbps</t>
+          <t>Download speed: 6.70 Mbps , Upload speed: 1.19 Mbps</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>375.36</v>
+        <v>266.66</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn455394818.opengw.net:1999"&gt;vpn455394818.opengw.net:1999&lt;/a&gt;</t>
+          <t>&lt;a href="vpn732878229.opengw.net:1912"&gt;vpn732878229.opengw.net:1912&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Download speed: 6.37 Mbps , Upload speed: 1.40 Mbps</t>
+          <t>Download speed: 4.60 Mbps , Upload speed: 1.98 Mbps</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>406.27</v>
+        <v>365.71</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn269589023.opengw.net:1709"&gt;vpn269589023.opengw.net:1709&lt;/a&gt;</t>
+          <t>&lt;a href="vpn649862665.opengw.net:1820"&gt;vpn649862665.opengw.net:1820&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Download speed: 3.19 Mbps , Upload speed: 1.37 Mbps</t>
+          <t>Download speed: 7.09 Mbps , Upload speed: 2.00 Mbps</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>413.87</v>
+        <v>383.98</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn889799541.opengw.net:1886"&gt;vpn889799541.opengw.net:1886&lt;/a&gt;</t>
+          <t>&lt;a href="vpn919908376.opengw.net"&gt;vpn919908376.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Download speed: 2.64 Mbps , Upload speed: 1.53 Mbps</t>
+          <t>Download speed: 6.66 Mbps , Upload speed: 5.84 Mbps</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>414.46</v>
+        <v>391</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn911255928.opengw.net:1234"&gt;vpn911255928.opengw.net:1234&lt;/a&gt;</t>
+          <t>&lt;a href="public-vpn-137.opengw.net"&gt;public-vpn-137.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Download speed: 4.92 Mbps , Upload speed: 1.27 Mbps</t>
+          <t>Download speed: 3.81 Mbps , Upload speed: 1.23 Mbps</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>421.22</v>
+        <v>397.2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn409210641.opengw.net:1283"&gt;vpn409210641.opengw.net:1283&lt;/a&gt;</t>
+          <t>&lt;a href="public-vpn-189.opengw.net"&gt;public-vpn-189.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Download speed: 4.20 Mbps , Upload speed: 1.55 Mbps</t>
+          <t>Download speed: 4.73 Mbps , Upload speed: 2.00 Mbps</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>432.91</v>
+        <v>398.45</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn295009792.opengw.net:1980"&gt;vpn295009792.opengw.net:1980&lt;/a&gt;</t>
+          <t>&lt;a href="vpn933657463.opengw.net:1463"&gt;vpn933657463.opengw.net:1463&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Download speed: 3.84 Mbps , Upload speed: 3.15 Mbps</t>
+          <t>Download speed: 3.04 Mbps , Upload speed: 2.71 Mbps</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>434.9</v>
+        <v>399</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn526135875.opengw.net:1270"&gt;vpn526135875.opengw.net:1270&lt;/a&gt;</t>
+          <t>&lt;a href="vpn841983016.opengw.net:1663"&gt;vpn841983016.opengw.net:1663&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Download speed: 5.88 Mbps , Upload speed: 2.01 Mbps</t>
+          <t>Download speed: 4.53 Mbps , Upload speed: 2.57 Mbps</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>443.52</v>
+        <v>399.33</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn415804034.opengw.net:1985"&gt;vpn415804034.opengw.net:1985&lt;/a&gt;</t>
+          <t>&lt;a href="vpn215634525.opengw.net:1610"&gt;vpn215634525.opengw.net:1610&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Download speed: 3.59 Mbps , Upload speed: 2.59 Mbps</t>
+          <t>Download speed: 4.16 Mbps , Upload speed: 2.26 Mbps</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C12" t="n">
-        <v>445.98</v>
+        <v>401.01</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn559333443.opengw.net:1558"&gt;vpn559333443.opengw.net:1558&lt;/a&gt;</t>
+          <t>&lt;a href="public-vpn-170.opengw.net"&gt;public-vpn-170.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Download speed: 3.55 Mbps , Upload speed: 2.20 Mbps</t>
+          <t>Download speed: 4.27 Mbps , Upload speed: 2.45 Mbps</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>446.75</v>
+        <v>402.84</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn141353891.opengw.net:1632"&gt;vpn141353891.opengw.net:1632&lt;/a&gt;</t>
+          <t>&lt;a href="public-vpn-88.opengw.net"&gt;public-vpn-88.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Download speed: 6.58 Mbps , Upload speed: 6.29 Mbps</t>
+          <t>Download speed: 4.85 Mbps , Upload speed: 2.89 Mbps</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>453.78</v>
+        <v>407.89</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn467254656.opengw.net:1884"&gt;vpn467254656.opengw.net:1884&lt;/a&gt;</t>
+          <t>&lt;a href="vpn204700569.opengw.net:1703"&gt;vpn204700569.opengw.net:1703&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Download speed: 5.77 Mbps , Upload speed: 2.65 Mbps</t>
+          <t>Download speed: 3.65 Mbps , Upload speed: 2.75 Mbps</t>
         </is>
       </c>
     </row>
@@ -766,19 +766,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>478.73</v>
+        <v>422.98</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn902386102.opengw.net:1562"&gt;vpn902386102.opengw.net:1562&lt;/a&gt;</t>
+          <t>&lt;a href="vpn835006700.opengw.net:1387"&gt;vpn835006700.opengw.net:1387&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Download speed: 5.82 Mbps , Upload speed: 2.21 Mbps</t>
+          <t>Download speed: 5.24 Mbps , Upload speed: 6.69 Mbps</t>
         </is>
       </c>
     </row>
@@ -789,19 +789,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>480.05</v>
+        <v>423</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn820064746.opengw.net:1846"&gt;vpn820064746.opengw.net:1846&lt;/a&gt;</t>
+          <t>&lt;a href="vpn955515393.opengw.net:1726"&gt;vpn955515393.opengw.net:1726&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Download speed: 6.65 Mbps , Upload speed: 1.73 Mbps</t>
+          <t>Download speed: 3.97 Mbps , Upload speed: 2.84 Mbps</t>
         </is>
       </c>
     </row>
@@ -812,19 +812,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
-        <v>484.03</v>
+        <v>423.55</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn709750107.opengw.net:1745"&gt;vpn709750107.opengw.net:1745&lt;/a&gt;</t>
+          <t>&lt;a href="vpn957134357.opengw.net:1605"&gt;vpn957134357.opengw.net:1605&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Download speed: 1.75 Mbps , Upload speed: 1.19 Mbps</t>
+          <t>Download speed: 4.21 Mbps , Upload speed: 2.70 Mbps</t>
         </is>
       </c>
     </row>
@@ -835,19 +835,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
-        <v>489.01</v>
+        <v>424.67</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn212056745.opengw.net:1583"&gt;vpn212056745.opengw.net:1583&lt;/a&gt;</t>
+          <t>&lt;a href="vpn488831472.opengw.net:1719"&gt;vpn488831472.opengw.net:1719&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Download speed: 5.28 Mbps , Upload speed: 3.66 Mbps</t>
+          <t>Download speed: 3.96 Mbps , Upload speed: 4.53 Mbps</t>
         </is>
       </c>
     </row>
@@ -861,16 +861,16 @@
         <v>31</v>
       </c>
       <c r="C19" t="n">
-        <v>492.38</v>
+        <v>425.01</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn619044258.opengw.net:1949"&gt;vpn619044258.opengw.net:1949&lt;/a&gt;</t>
+          <t>&lt;a href="vpn500495543.opengw.net:1878"&gt;vpn500495543.opengw.net:1878&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Download speed: 8.99 Mbps , Upload speed: 2.64 Mbps</t>
+          <t>Download speed: 5.63 Mbps , Upload speed: 2.91 Mbps</t>
         </is>
       </c>
     </row>
@@ -881,65 +881,65 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" t="n">
-        <v>492.43</v>
+        <v>426</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn793230419.opengw.net:1845"&gt;vpn793230419.opengw.net:1845&lt;/a&gt;</t>
+          <t>&lt;a href="vpn332195449.opengw.net:1539"&gt;vpn332195449.opengw.net:1539&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Download speed: 2.53 Mbps , Upload speed: 1.20 Mbps</t>
+          <t>Download speed: 5.64 Mbps , Upload speed: 2.42 Mbps</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C21" t="n">
-        <v>494.99</v>
+        <v>430.84</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn719329406.opengw.net:992"&gt;vpn719329406.opengw.net:992&lt;/a&gt;</t>
+          <t>&lt;a href="vpn107334606.opengw.net:1744"&gt;vpn107334606.opengw.net:1744&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Download speed: 0.31 Mbps , Upload speed: 1.19 Mbps</t>
+          <t>Download speed: 4.35 Mbps , Upload speed: 3.84 Mbps</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C22" t="n">
-        <v>522.12</v>
+        <v>431.52</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn300651922.opengw.net:1564"&gt;vpn300651922.opengw.net:1564&lt;/a&gt;</t>
+          <t>&lt;a href="vpn447995182.opengw.net:1892"&gt;vpn447995182.opengw.net:1892&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Download speed: 2.37 Mbps , Upload speed: 1.78 Mbps</t>
+          <t>Download speed: 4.99 Mbps , Upload speed: 3.18 Mbps</t>
         </is>
       </c>
     </row>
@@ -950,19 +950,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C23" t="n">
-        <v>525.55</v>
+        <v>431.86</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn505854977.opengw.net:1908"&gt;vpn505854977.opengw.net:1908&lt;/a&gt;</t>
+          <t>&lt;a href="vpn275090342.opengw.net:1559"&gt;vpn275090342.opengw.net:1559&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Download speed: 2.59 Mbps , Upload speed: 0.55 Mbps</t>
+          <t>Download speed: 4.49 Mbps , Upload speed: 3.49 Mbps</t>
         </is>
       </c>
     </row>
@@ -973,19 +973,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" t="n">
-        <v>544.15</v>
+        <v>432.14</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn539423980.opengw.net:1262"&gt;vpn539423980.opengw.net:1262&lt;/a&gt;</t>
+          <t>&lt;a href="vpn754708629.opengw.net:995"&gt;vpn754708629.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Download speed: 1.78 Mbps , Upload speed: 2.08 Mbps</t>
+          <t>Download speed: 3.94 Mbps , Upload speed: 4.46 Mbps</t>
         </is>
       </c>
     </row>
@@ -996,19 +996,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C25" t="n">
-        <v>547.79</v>
+        <v>434.2</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn568095053.opengw.net:1908"&gt;vpn568095053.opengw.net:1908&lt;/a&gt;</t>
+          <t>&lt;a href="vpn774002505.opengw.net:1822"&gt;vpn774002505.opengw.net:1822&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Download speed: 0.71 Mbps , Upload speed: 2.26 Mbps</t>
+          <t>Download speed: 2.04 Mbps , Upload speed: 0.60 Mbps</t>
         </is>
       </c>
     </row>
@@ -1019,19 +1019,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C26" t="n">
-        <v>561.55</v>
+        <v>434.76</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn594821234.opengw.net:995"&gt;vpn594821234.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn130127224.opengw.net:1601"&gt;vpn130127224.opengw.net:1601&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Download speed: 2.19 Mbps , Upload speed: 2.12 Mbps</t>
+          <t>Download speed: 4.63 Mbps , Upload speed: 3.05 Mbps</t>
         </is>
       </c>
     </row>
@@ -1042,19 +1042,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C27" t="n">
-        <v>563.27</v>
+        <v>434.97</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn566776972.opengw.net:1345"&gt;vpn566776972.opengw.net:1345&lt;/a&gt;</t>
+          <t>&lt;a href="vpn516729088.opengw.net:1710"&gt;vpn516729088.opengw.net:1710&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Download speed: 0.49 Mbps , Upload speed: 2.34 Mbps</t>
+          <t>Download speed: 5.52 Mbps , Upload speed: 4.83 Mbps</t>
         </is>
       </c>
     </row>
@@ -1065,19 +1065,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>591.8200000000001</v>
+        <v>435.06</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn553450511.opengw.net:1318"&gt;vpn553450511.opengw.net:1318&lt;/a&gt;</t>
+          <t>&lt;a href="vpn602977010.opengw.net:1374"&gt;vpn602977010.opengw.net:1374&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Download speed: 0.18 Mbps , Upload speed: 1.74 Mbps</t>
+          <t>Download speed: 5.12 Mbps , Upload speed: 3.44 Mbps</t>
         </is>
       </c>
     </row>
@@ -1088,19 +1088,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>603.71</v>
+        <v>436.6</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn324904981.opengw.net:995"&gt;vpn324904981.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn764376508.opengw.net:1625"&gt;vpn764376508.opengw.net:1625&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Download speed: 0.42 Mbps , Upload speed: 1.39 Mbps</t>
+          <t>Download speed: 2.57 Mbps , Upload speed: 4.76 Mbps</t>
         </is>
       </c>
     </row>
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C30" t="n">
-        <v>605.8</v>
+        <v>437.61</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn754708629.opengw.net:995"&gt;vpn754708629.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn171316833.opengw.net:1792"&gt;vpn171316833.opengw.net:1792&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Download speed: 0.29 Mbps , Upload speed: 1.16 Mbps</t>
+          <t>Download speed: 0.19 Mbps , Upload speed: 0.49 Mbps</t>
         </is>
       </c>
     </row>
@@ -1134,19 +1134,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>626.74</v>
+        <v>439.22</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>&lt;a href="public-vpn-88.opengw.net"&gt;public-vpn-88.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn676706272.opengw.net:1642"&gt;vpn676706272.opengw.net:1642&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Download speed: 0.74 Mbps , Upload speed: 0.62 Mbps</t>
+          <t>Download speed: 0.48 Mbps , Upload speed: 1.94 Mbps</t>
         </is>
       </c>
     </row>
@@ -1157,19 +1157,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>636.6900000000001</v>
+        <v>445.65</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn275686320.opengw.net:1517"&gt;vpn275686320.opengw.net:1517&lt;/a&gt;</t>
+          <t>&lt;a href="vpn835327708.opengw.net:1344"&gt;vpn835327708.opengw.net:1344&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Download speed: 1.09 Mbps , Upload speed: 0.59 Mbps</t>
+          <t>Download speed: 0.94 Mbps , Upload speed: 1.39 Mbps</t>
         </is>
       </c>
     </row>
@@ -1183,16 +1183,16 @@
         <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>693.53</v>
+        <v>646.12</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn511431660.opengw.net:1432"&gt;vpn511431660.opengw.net:1432&lt;/a&gt;</t>
+          <t>&lt;a href="vpn409210641.opengw.net:1283"&gt;vpn409210641.opengw.net:1283&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Download speed: 0.61 Mbps , Upload speed: 0.34 Mbps</t>
+          <t>Download speed: 1.38 Mbps , Upload speed: 0.59 Mbps</t>
         </is>
       </c>
     </row>
@@ -1203,180 +1203,180 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C34" t="n">
-        <v>717.45</v>
+        <v>20000</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn815691442.opengw.net:1631"&gt;vpn815691442.opengw.net:1631&lt;/a&gt;</t>
+          <t>&lt;a href="vpn368782254.opengw.net:995"&gt;vpn368782254.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Download speed: 0.65 Mbps , Upload speed: 1.62 Mbps</t>
+          <t>Download speed: 0.47 Mbps , Upload speed: 1.72 Mbps</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C35" t="n">
-        <v>749.74</v>
+        <v>20000</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>&lt;a href="public-vpn-137.opengw.net"&gt;public-vpn-137.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn968385295.opengw.net:995"&gt;vpn968385295.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Download speed: 2.95 Mbps , Upload speed: 1.54 Mbps</t>
+          <t>Download speed: 0.46 Mbps , Upload speed: 3.19 Mbps</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C36" t="n">
-        <v>774.5599999999999</v>
+        <v>20000</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn497166820.opengw.net:1999"&gt;vpn497166820.opengw.net:1999&lt;/a&gt;</t>
+          <t>&lt;a href="vpn656083064.opengw.net:995"&gt;vpn656083064.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Download speed: 0.61 Mbps , Upload speed: 1.41 Mbps</t>
+          <t>Download speed: 0.61 Mbps , Upload speed: 0.72 Mbps</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>796.7</v>
+        <v>20000</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn722327931.opengw.net:1545"&gt;vpn722327931.opengw.net:1545&lt;/a&gt;</t>
+          <t>&lt;a href="vpn397506869.opengw.net"&gt;vpn397506869.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Download speed: 1.02 Mbps , Upload speed: 0.92 Mbps</t>
+          <t>Download speed: 0.38 Mbps , Upload speed: 1.86 Mbps</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C38" t="n">
-        <v>798.8</v>
+        <v>20000</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn574067639.opengw.net:1740"&gt;vpn574067639.opengw.net:1740&lt;/a&gt;</t>
+          <t>&lt;a href="vpn463598151.opengw.net:1255"&gt;vpn463598151.opengw.net:1255&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Download speed: 0.67 Mbps , Upload speed: 2.35 Mbps</t>
+          <t>Download speed: 0.44 Mbps , Upload speed: 1.78 Mbps</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C39" t="n">
-        <v>827.42</v>
+        <v>20000</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>&lt;a href="public-vpn-189.opengw.net"&gt;public-vpn-189.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn621971981.opengw.net:995"&gt;vpn621971981.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Download speed: 2.56 Mbps , Upload speed: 0.65 Mbps</t>
+          <t>Download speed: 0.94 Mbps , Upload speed: 3.26 Mbps</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C40" t="n">
-        <v>853.37</v>
+        <v>20000</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn699613583.opengw.net:1532"&gt;vpn699613583.opengw.net:1532&lt;/a&gt;</t>
+          <t>&lt;a href="vpn763413581.opengw.net:995"&gt;vpn763413581.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Download speed: 1.13 Mbps , Upload speed: 0.37 Mbps</t>
+          <t>Download speed: 0.31 Mbps , Upload speed: 1.97 Mbps</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C41" t="n">
-        <v>860.04</v>
+        <v>20000</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn949596660.opengw.net:1800"&gt;vpn949596660.opengw.net:1800&lt;/a&gt;</t>
+          <t>&lt;a href="vpn928774760.opengw.net:995"&gt;vpn928774760.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Download speed: 1.12 Mbps , Upload speed: 0.39 Mbps</t>
+          <t>Download speed: 4.51 Mbps , Upload speed: 3.35 Mbps</t>
         </is>
       </c>
     </row>
@@ -1387,19 +1387,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C42" t="n">
-        <v>953.87</v>
+        <v>20000</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn445821873.opengw.net:1877"&gt;vpn445821873.opengw.net:1877&lt;/a&gt;</t>
+          <t>&lt;a href="vpn969788274.opengw.net:995"&gt;vpn969788274.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Download speed: 1.50 Mbps , Upload speed: 0.85 Mbps</t>
+          <t>Download speed: 1.40 Mbps , Upload speed: 2.54 Mbps</t>
         </is>
       </c>
     </row>
@@ -1410,19 +1410,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C43" t="n">
-        <v>1518.74</v>
+        <v>20000</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn447995182.opengw.net:1892"&gt;vpn447995182.opengw.net:1892&lt;/a&gt;</t>
+          <t>&lt;a href="vpn667908658.opengw.net:995"&gt;vpn667908658.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Download speed: 1.43 Mbps , Upload speed: 0.63 Mbps</t>
+          <t>Download speed: 0.80 Mbps , Upload speed: 0.70 Mbps</t>
         </is>
       </c>
     </row>
@@ -1436,16 +1436,16 @@
         <v>31</v>
       </c>
       <c r="C44" t="n">
-        <v>1602.9</v>
+        <v>20000</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn540833543.opengw.net:1376"&gt;vpn540833543.opengw.net:1376&lt;/a&gt;</t>
+          <t>&lt;a href="vpn935822335.opengw.net:995"&gt;vpn935822335.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Download speed: 2.10 Mbps , Upload speed: 2.51 Mbps</t>
+          <t>Download speed: 0.30 Mbps , Upload speed: 2.36 Mbps</t>
         </is>
       </c>
     </row>
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" t="n">
         <v>20000</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn212140070.opengw.net:1629"&gt;vpn212140070.opengw.net:1629&lt;/a&gt;</t>
+          <t>&lt;a href="vpn849621319.opengw.net:995"&gt;vpn849621319.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Download speed: 2.83 Mbps , Upload speed: 0.51 Mbps</t>
+          <t>Download speed: 0.64 Mbps , Upload speed: 0.48 Mbps</t>
         </is>
       </c>
     </row>
@@ -1479,19 +1479,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C46" t="n">
         <v>20000</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn388097476.opengw.net:995"&gt;vpn388097476.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn599998728.opengw.net:995"&gt;vpn599998728.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Download speed: 1.25 Mbps , Upload speed: 0.96 Mbps</t>
+          <t>Download speed: 0.55 Mbps , Upload speed: 0.81 Mbps</t>
         </is>
       </c>
     </row>
@@ -1502,157 +1502,157 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C47" t="n">
         <v>20000</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn586257889.opengw.net:995"&gt;vpn586257889.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn874182691.opengw.net:995"&gt;vpn874182691.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Download speed: 1.74 Mbps , Upload speed: 1.16 Mbps</t>
+          <t>Download speed: 1.58 Mbps , Upload speed: 2.85 Mbps</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
         <v>20000</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn445306336.opengw.net:1295"&gt;vpn445306336.opengw.net:1295&lt;/a&gt;</t>
+          <t>&lt;a href="vpn439265766.opengw.net:1951"&gt;vpn439265766.opengw.net:1951&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Download speed: 3.73 Mbps , Upload speed: 1.29 Mbps</t>
+          <t>Download speed: 1.37 Mbps , Upload speed: 0.51 Mbps</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
         <v>20000</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn593337586.opengw.net:1503"&gt;vpn593337586.opengw.net:1503&lt;/a&gt;</t>
+          <t>&lt;a href="vpn668768967.opengw.net:1449"&gt;vpn668768967.opengw.net:1449&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Download speed: 3.05 Mbps , Upload speed: 1.53 Mbps</t>
+          <t>Download speed: 3.35 Mbps , Upload speed: 3.51 Mbps</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
         <v>20000</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn299078896.opengw.net:995"&gt;vpn299078896.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn946171505.opengw.net:1687"&gt;vpn946171505.opengw.net:1687&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Download speed: 2.70 Mbps , Upload speed: 0.77 Mbps</t>
+          <t>Download speed: 4.48 Mbps , Upload speed: 3.34 Mbps</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C51" t="n">
         <v>20000</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn397506869.opengw.net"&gt;vpn397506869.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn722814351.opengw.net:1353"&gt;vpn722814351.opengw.net:1353&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Download speed: 2.46 Mbps , Upload speed: 0.77 Mbps</t>
+          <t>Download speed: 2.49 Mbps , Upload speed: 2.58 Mbps</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C52" t="n">
         <v>20000</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn788354141.opengw.net:995"&gt;vpn788354141.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn469326190.opengw.net:1826"&gt;vpn469326190.opengw.net:1826&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Download speed: 2.34 Mbps , Upload speed: 1.67 Mbps</t>
+          <t>Download speed: 2.74 Mbps , Upload speed: 2.46 Mbps</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C53" t="n">
         <v>20000</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn448703642.opengw.net:995"&gt;vpn448703642.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn576289479.opengw.net:1966"&gt;vpn576289479.opengw.net:1966&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Download speed: 3.55 Mbps , Upload speed: 1.78 Mbps</t>
+          <t>Download speed: 2.64 Mbps , Upload speed: 2.33 Mbps</t>
         </is>
       </c>
     </row>
@@ -1663,19 +1663,19 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
         <v>20000</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn761335951.opengw.net:1797"&gt;vpn761335951.opengw.net:1797&lt;/a&gt;</t>
+          <t>&lt;a href="vpn857733068.opengw.net:1255"&gt;vpn857733068.opengw.net:1255&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Download speed: 5.74 Mbps , Upload speed: 2.26 Mbps</t>
+          <t>Download speed: 3.20 Mbps , Upload speed: 1.87 Mbps</t>
         </is>
       </c>
     </row>
@@ -1686,19 +1686,19 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C55" t="n">
         <v>20000</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn752033802.opengw.net:1302"&gt;vpn752033802.opengw.net:1302&lt;/a&gt;</t>
+          <t>&lt;a href="vpn598363145.opengw.net:1660"&gt;vpn598363145.opengw.net:1660&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Download speed: 6.18 Mbps , Upload speed: 0.94 Mbps</t>
+          <t>Download speed: 3.04 Mbps , Upload speed: 6.79 Mbps</t>
         </is>
       </c>
     </row>
@@ -1709,19 +1709,19 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C56" t="n">
         <v>20000</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn880613887.opengw.net:1415"&gt;vpn880613887.opengw.net:1415&lt;/a&gt;</t>
+          <t>&lt;a href="vpn925855912.opengw.net:1682"&gt;vpn925855912.opengw.net:1682&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Download speed: 3.81 Mbps , Upload speed: 2.57 Mbps</t>
+          <t>Download speed: 2.60 Mbps , Upload speed: 2.26 Mbps</t>
         </is>
       </c>
     </row>
@@ -1732,42 +1732,42 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C57" t="n">
         <v>20000</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn613193070.opengw.net:1398"&gt;vpn613193070.opengw.net:1398&lt;/a&gt;</t>
+          <t>&lt;a href="vpn412274570.opengw.net:1379"&gt;vpn412274570.opengw.net:1379&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Download speed: 9.35 Mbps , Upload speed: 3.48 Mbps</t>
+          <t>Download speed: 4.30 Mbps , Upload speed: 4.26 Mbps</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C58" t="n">
         <v>20000</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn950366136.opengw.net:1269"&gt;vpn950366136.opengw.net:1269&lt;/a&gt;</t>
+          <t>&lt;a href="vpn512785343.opengw.net"&gt;vpn512785343.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Download speed: 8.12 Mbps , Upload speed: 2.43 Mbps</t>
+          <t>Download speed: 6.41 Mbps , Upload speed: 8.14 Mbps</t>
         </is>
       </c>
     </row>
@@ -1778,19 +1778,19 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C59" t="n">
         <v>20000</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn102703047.opengw.net:1780"&gt;vpn102703047.opengw.net:1780&lt;/a&gt;</t>
+          <t>&lt;a href="vpn20230415.opengw.net"&gt;vpn20230415.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Download speed: 7.12 Mbps , Upload speed: 1.96 Mbps</t>
+          <t>Download speed: 2.81 Mbps , Upload speed: 3.49 Mbps</t>
         </is>
       </c>
     </row>
@@ -1801,42 +1801,42 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C60" t="n">
         <v>20000</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn958842250.opengw.net:1518"&gt;vpn958842250.opengw.net:1518&lt;/a&gt;</t>
+          <t>&lt;a href="vpn207450035.opengw.net:1279"&gt;vpn207450035.opengw.net:1279&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Download speed: 6.15 Mbps , Upload speed: 1.91 Mbps</t>
+          <t>Download speed: 2.40 Mbps , Upload speed: 4.46 Mbps</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C61" t="n">
         <v>20000</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn512785343.opengw.net"&gt;vpn512785343.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn423986877.opengw.net:1989"&gt;vpn423986877.opengw.net:1989&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Download speed: 5.48 Mbps , Upload speed: 2.35 Mbps</t>
+          <t>Download speed: 8.95 Mbps , Upload speed: 1.87 Mbps</t>
         </is>
       </c>
     </row>
@@ -1847,19 +1847,19 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C62" t="n">
         <v>20000</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn20230415.opengw.net"&gt;vpn20230415.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn991950200.opengw.net:1464"&gt;vpn991950200.opengw.net:1464&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Download speed: 7.45 Mbps , Upload speed: 4.49 Mbps</t>
+          <t>Download speed: 3.45 Mbps , Upload speed: 3.72 Mbps</t>
         </is>
       </c>
     </row>
@@ -1870,19 +1870,19 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C63" t="n">
         <v>20000</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn207450035.opengw.net:1279"&gt;vpn207450035.opengw.net:1279&lt;/a&gt;</t>
+          <t>&lt;a href="vpn413271508.opengw.net:1789"&gt;vpn413271508.opengw.net:1789&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Download speed: 8.86 Mbps , Upload speed: 3.98 Mbps</t>
+          <t>Download speed: 6.01 Mbps , Upload speed: 4.60 Mbps</t>
         </is>
       </c>
     </row>
@@ -1893,19 +1893,19 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C64" t="n">
         <v>20000</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn856538348.opengw.net:1284"&gt;vpn856538348.opengw.net:1284&lt;/a&gt;</t>
+          <t>&lt;a href="vpn550981730.opengw.net:1674"&gt;vpn550981730.opengw.net:1674&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Download speed: 9.16 Mbps , Upload speed: 4.61 Mbps</t>
+          <t>Download speed: 4.74 Mbps , Upload speed: 3.53 Mbps</t>
         </is>
       </c>
     </row>
@@ -1916,19 +1916,19 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C65" t="n">
         <v>20000</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn214710245.opengw.net:1461"&gt;vpn214710245.opengw.net:1461&lt;/a&gt;</t>
+          <t>&lt;a href="vpn447034596.opengw.net:1449"&gt;vpn447034596.opengw.net:1449&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Download speed: 10.39 Mbps , Upload speed: 4.11 Mbps</t>
+          <t>Download speed: 1.86 Mbps , Upload speed: 4.17 Mbps</t>
         </is>
       </c>
     </row>
@@ -1939,19 +1939,19 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C66" t="n">
         <v>20000</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn391292136.opengw.net:1456"&gt;vpn391292136.opengw.net:1456&lt;/a&gt;</t>
+          <t>&lt;a href="vpn845381893.opengw.net:1750"&gt;vpn845381893.opengw.net:1750&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Download speed: 7.45 Mbps , Upload speed: 2.43 Mbps</t>
+          <t>Download speed: 6.19 Mbps , Upload speed: 4.33 Mbps</t>
         </is>
       </c>
     </row>
@@ -1962,19 +1962,19 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C67" t="n">
         <v>20000</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn611004466.opengw.net:1517"&gt;vpn611004466.opengw.net:1517&lt;/a&gt;</t>
+          <t>&lt;a href="vpn600219540.opengw.net:1353"&gt;vpn600219540.opengw.net:1353&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Download speed: 5.09 Mbps , Upload speed: 2.44 Mbps</t>
+          <t>Download speed: 4.19 Mbps , Upload speed: 2.59 Mbps</t>
         </is>
       </c>
     </row>
@@ -1985,19 +1985,19 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C68" t="n">
         <v>20000</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn443305096.opengw.net:995"&gt;vpn443305096.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn662919681.opengw.net:995"&gt;vpn662919681.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Download speed: 4.06 Mbps , Upload speed: 3.56 Mbps</t>
+          <t>Download speed: 4.73 Mbps , Upload speed: 4.39 Mbps</t>
         </is>
       </c>
     </row>
@@ -2015,35 +2015,35 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn589919940.opengw.net:995"&gt;vpn589919940.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn380548616.opengw.net:995"&gt;vpn380548616.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Download speed: 6.61 Mbps , Upload speed: 2.29 Mbps</t>
+          <t>Download speed: 2.84 Mbps , Upload speed: 3.65 Mbps</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="C70" t="n">
         <v>20000</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn735175318.opengw.net:995"&gt;vpn735175318.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn594270543.opengw.net:995"&gt;vpn594270543.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Download speed: 6.95 Mbps , Upload speed: 2.83 Mbps</t>
+          <t>Download speed: 2.56 Mbps , Upload speed: 1.83 Mbps</t>
         </is>
       </c>
     </row>
@@ -2054,19 +2054,19 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C71" t="n">
         <v>20000</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn967225192.opengw.net:995"&gt;vpn967225192.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn241935226.opengw.net:1971"&gt;vpn241935226.opengw.net:1971&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Download speed: 9.65 Mbps , Upload speed: 5.81 Mbps</t>
+          <t>Download speed: 2.24 Mbps , Upload speed: 4.09 Mbps</t>
         </is>
       </c>
     </row>
@@ -2077,157 +2077,65 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C72" t="n">
         <v>20000</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn869074184.opengw.net:995"&gt;vpn869074184.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn111743189.opengw.net:995"&gt;vpn111743189.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Download speed: 7.77 Mbps , Upload speed: 3.70 Mbps</t>
+          <t>Download speed: 2.77 Mbps , Upload speed: 1.52 Mbps</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>224</v>
+        <v>29</v>
       </c>
       <c r="C73" t="n">
         <v>20000</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn720685883.opengw.net:1940"&gt;vpn720685883.opengw.net:1940&lt;/a&gt;</t>
+          <t>&lt;a href="vpn739296627.opengw.net:995"&gt;vpn739296627.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Download speed: 8.25 Mbps , Upload speed: 2.37 Mbps</t>
+          <t>Download speed: 2.96 Mbps , Upload speed: 2.72 Mbps</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Viet Nam</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>29</v>
+        <v>279</v>
       </c>
       <c r="C74" t="n">
         <v>20000</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn919908376.opengw.net"&gt;vpn919908376.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn720685883.opengw.net:1940"&gt;vpn720685883.opengw.net:1940&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Download speed: 5.63 Mbps , Upload speed: 7.20 Mbps</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Korea Republic of</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>29</v>
-      </c>
-      <c r="C75" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>&lt;a href="vpn395501879.opengw.net:1360"&gt;vpn395501879.opengw.net:1360&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Download speed: 8.35 Mbps , Upload speed: 2.26 Mbps</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Korea Republic of</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>30</v>
-      </c>
-      <c r="C76" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>&lt;a href="vpn695659418.opengw.net:995"&gt;vpn695659418.opengw.net:995&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Download speed: 8.54 Mbps , Upload speed: 3.65 Mbps</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>31</v>
-      </c>
-      <c r="C77" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>&lt;a href="vpn574357771.opengw.net:1299"&gt;vpn574357771.opengw.net:1299&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Download speed: 5.97 Mbps , Upload speed: 4.74 Mbps</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>666</v>
-      </c>
-      <c r="C78" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>&lt;a href="vpn277910437.opengw.net:1643"&gt;vpn277910437.opengw.net:1643&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Download speed: 9.90 Mbps , Upload speed: 5.67 Mbps</t>
+          <t>Download speed: 3.70 Mbps , Upload speed: 1.61 Mbps</t>
         </is>
       </c>
     </row>

--- a/sstp.xlsx
+++ b/sstp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>230.7</v>
+        <v>154.32</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -479,99 +479,99 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Download speed: 6.33 Mbps , Upload speed: 2.55 Mbps</t>
+          <t>Download speed: 2.22 Mbps , Upload speed: 8.64 Mbps</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn719329406.opengw.net:992"&gt;vpn719329406.opengw.net:992&lt;/a&gt;</t>
+          <t>&lt;a href="vpn432295087.opengw.net"&gt;vpn432295087.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Download speed: 6.70 Mbps , Upload speed: 1.19 Mbps</t>
+          <t>Download speed: 2.76 Mbps , Upload speed: 7.71 Mbps</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>266.66</v>
+        <v>220.26</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn732878229.opengw.net:1912"&gt;vpn732878229.opengw.net:1912&lt;/a&gt;</t>
+          <t>&lt;a href="vpn265121650.opengw.net:1512"&gt;vpn265121650.opengw.net:1512&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Download speed: 4.60 Mbps , Upload speed: 1.98 Mbps</t>
+          <t>Download speed: 3.97 Mbps , Upload speed: 5.67 Mbps</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>365.71</v>
+        <v>231.91</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn649862665.opengw.net:1820"&gt;vpn649862665.opengw.net:1820&lt;/a&gt;</t>
+          <t>&lt;a href="vpn292007283.opengw.net:1245"&gt;vpn292007283.opengw.net:1245&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Download speed: 7.09 Mbps , Upload speed: 2.00 Mbps</t>
+          <t>Download speed: 2.69 Mbps , Upload speed: 6.96 Mbps</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Viet Nam</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>383.98</v>
+        <v>268.87</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn919908376.opengw.net"&gt;vpn919908376.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn492608530.opengw.net:1782"&gt;vpn492608530.opengw.net:1782&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Download speed: 6.66 Mbps , Upload speed: 5.84 Mbps</t>
+          <t>Download speed: 2.62 Mbps , Upload speed: 5.10 Mbps</t>
         </is>
       </c>
     </row>
@@ -582,19 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C7" t="n">
-        <v>391</v>
+        <v>314.42</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>&lt;a href="public-vpn-137.opengw.net"&gt;public-vpn-137.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn390135640.opengw.net:1845"&gt;vpn390135640.opengw.net:1845&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Download speed: 3.81 Mbps , Upload speed: 1.23 Mbps</t>
+          <t>Download speed: 2.05 Mbps , Upload speed: 3.76 Mbps</t>
         </is>
       </c>
     </row>
@@ -605,19 +605,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>397.2</v>
+        <v>320.83</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;a href="public-vpn-189.opengw.net"&gt;public-vpn-189.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn640000203.opengw.net:1301"&gt;vpn640000203.opengw.net:1301&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Download speed: 4.73 Mbps , Upload speed: 2.00 Mbps</t>
+          <t>Download speed: 3.13 Mbps , Upload speed: 5.41 Mbps</t>
         </is>
       </c>
     </row>
@@ -628,19 +628,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>398.45</v>
+        <v>321.01</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn933657463.opengw.net:1463"&gt;vpn933657463.opengw.net:1463&lt;/a&gt;</t>
+          <t>&lt;a href="vpn541213008.opengw.net:1266"&gt;vpn541213008.opengw.net:1266&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Download speed: 3.04 Mbps , Upload speed: 2.71 Mbps</t>
+          <t>Download speed: 2.44 Mbps , Upload speed: 3.70 Mbps</t>
         </is>
       </c>
     </row>
@@ -651,42 +651,42 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>399</v>
+        <v>331.31</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn841983016.opengw.net:1663"&gt;vpn841983016.opengw.net:1663&lt;/a&gt;</t>
+          <t>&lt;a href="vpn100883408.opengw.net:1264"&gt;vpn100883408.opengw.net:1264&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Download speed: 4.53 Mbps , Upload speed: 2.57 Mbps</t>
+          <t>Download speed: 2.52 Mbps , Upload speed: 5.25 Mbps</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>399.33</v>
+        <v>331.99</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn215634525.opengw.net:1610"&gt;vpn215634525.opengw.net:1610&lt;/a&gt;</t>
+          <t>&lt;a href="vpn966962787.opengw.net:1989"&gt;vpn966962787.opengw.net:1989&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Download speed: 4.16 Mbps , Upload speed: 2.26 Mbps</t>
+          <t>Download speed: 3.18 Mbps , Upload speed: 3.94 Mbps</t>
         </is>
       </c>
     </row>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>401.01</v>
+        <v>337.76</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Download speed: 4.27 Mbps , Upload speed: 2.45 Mbps</t>
+          <t>Download speed: 4.75 Mbps , Upload speed: 5.15 Mbps</t>
         </is>
       </c>
     </row>
@@ -720,65 +720,65 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>402.84</v>
+        <v>341.76</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>&lt;a href="public-vpn-88.opengw.net"&gt;public-vpn-88.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn384625373.opengw.net:1991"&gt;vpn384625373.opengw.net:1991&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Download speed: 4.85 Mbps , Upload speed: 2.89 Mbps</t>
+          <t>Download speed: 2.00 Mbps , Upload speed: 2.45 Mbps</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>407.89</v>
+        <v>344.12</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn204700569.opengw.net:1703"&gt;vpn204700569.opengw.net:1703&lt;/a&gt;</t>
+          <t>&lt;a href="vpn220029809.opengw.net:1653"&gt;vpn220029809.opengw.net:1653&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Download speed: 3.65 Mbps , Upload speed: 2.75 Mbps</t>
+          <t>Download speed: 4.26 Mbps , Upload speed: 7.14 Mbps</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>422.98</v>
+        <v>344.18</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn835006700.opengw.net:1387"&gt;vpn835006700.opengw.net:1387&lt;/a&gt;</t>
+          <t>&lt;a href="vpn331871080.opengw.net:1967"&gt;vpn331871080.opengw.net:1967&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Download speed: 5.24 Mbps , Upload speed: 6.69 Mbps</t>
+          <t>Download speed: 2.49 Mbps , Upload speed: 4.47 Mbps</t>
         </is>
       </c>
     </row>
@@ -789,19 +789,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>423</v>
+        <v>344.42</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn955515393.opengw.net:1726"&gt;vpn955515393.opengw.net:1726&lt;/a&gt;</t>
+          <t>&lt;a href="vpn260197435.opengw.net:1801"&gt;vpn260197435.opengw.net:1801&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Download speed: 3.97 Mbps , Upload speed: 2.84 Mbps</t>
+          <t>Download speed: 4.22 Mbps , Upload speed: 3.71 Mbps</t>
         </is>
       </c>
     </row>
@@ -812,19 +812,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C17" t="n">
-        <v>423.55</v>
+        <v>350.01</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn957134357.opengw.net:1605"&gt;vpn957134357.opengw.net:1605&lt;/a&gt;</t>
+          <t>&lt;a href="vpn487977480.opengw.net:1708"&gt;vpn487977480.opengw.net:1708&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Download speed: 4.21 Mbps , Upload speed: 2.70 Mbps</t>
+          <t>Download speed: 5.95 Mbps , Upload speed: 3.80 Mbps</t>
         </is>
       </c>
     </row>
@@ -835,19 +835,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="n">
-        <v>424.67</v>
+        <v>350.63</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn488831472.opengw.net:1719"&gt;vpn488831472.opengw.net:1719&lt;/a&gt;</t>
+          <t>&lt;a href="vpn984051294.opengw.net:1267"&gt;vpn984051294.opengw.net:1267&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Download speed: 3.96 Mbps , Upload speed: 4.53 Mbps</t>
+          <t>Download speed: 3.50 Mbps , Upload speed: 5.76 Mbps</t>
         </is>
       </c>
     </row>
@@ -858,19 +858,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>425.01</v>
+        <v>353</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn500495543.opengw.net:1878"&gt;vpn500495543.opengw.net:1878&lt;/a&gt;</t>
+          <t>&lt;a href="vpn600707398.opengw.net:1899"&gt;vpn600707398.opengw.net:1899&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Download speed: 5.63 Mbps , Upload speed: 2.91 Mbps</t>
+          <t>Download speed: 6.51 Mbps , Upload speed: 3.17 Mbps</t>
         </is>
       </c>
     </row>
@@ -881,19 +881,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>426</v>
+        <v>353.84</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn332195449.opengw.net:1539"&gt;vpn332195449.opengw.net:1539&lt;/a&gt;</t>
+          <t>&lt;a href="vpn480575261.opengw.net:1216"&gt;vpn480575261.opengw.net:1216&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Download speed: 5.64 Mbps , Upload speed: 2.42 Mbps</t>
+          <t>Download speed: 2.04 Mbps , Upload speed: 7.52 Mbps</t>
         </is>
       </c>
     </row>
@@ -904,19 +904,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C21" t="n">
-        <v>430.84</v>
+        <v>356</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn107334606.opengw.net:1744"&gt;vpn107334606.opengw.net:1744&lt;/a&gt;</t>
+          <t>&lt;a href="vpn129028469.opengw.net:1973"&gt;vpn129028469.opengw.net:1973&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Download speed: 4.35 Mbps , Upload speed: 3.84 Mbps</t>
+          <t>Download speed: 2.09 Mbps , Upload speed: 5.22 Mbps</t>
         </is>
       </c>
     </row>
@@ -927,19 +927,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" t="n">
-        <v>431.52</v>
+        <v>357.67</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn447995182.opengw.net:1892"&gt;vpn447995182.opengw.net:1892&lt;/a&gt;</t>
+          <t>&lt;a href="vpn862236868.opengw.net:995"&gt;vpn862236868.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Download speed: 4.99 Mbps , Upload speed: 3.18 Mbps</t>
+          <t>Download speed: 2.26 Mbps , Upload speed: 5.50 Mbps</t>
         </is>
       </c>
     </row>
@@ -950,42 +950,42 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" t="n">
-        <v>431.86</v>
+        <v>364.47</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn275090342.opengw.net:1559"&gt;vpn275090342.opengw.net:1559&lt;/a&gt;</t>
+          <t>&lt;a href="vpn398510953.opengw.net:1727"&gt;vpn398510953.opengw.net:1727&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Download speed: 4.49 Mbps , Upload speed: 3.49 Mbps</t>
+          <t>Download speed: 6.73 Mbps , Upload speed: 3.55 Mbps</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>432.14</v>
+        <v>370.02</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn754708629.opengw.net:995"&gt;vpn754708629.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="public-vpn-88.opengw.net"&gt;public-vpn-88.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Download speed: 3.94 Mbps , Upload speed: 4.46 Mbps</t>
+          <t>Download speed: 2.57 Mbps , Upload speed: 7.56 Mbps</t>
         </is>
       </c>
     </row>
@@ -996,19 +996,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" t="n">
-        <v>434.2</v>
+        <v>372.26</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn774002505.opengw.net:1822"&gt;vpn774002505.opengw.net:1822&lt;/a&gt;</t>
+          <t>&lt;a href="vpn166393958.opengw.net:1488"&gt;vpn166393958.opengw.net:1488&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Download speed: 2.04 Mbps , Upload speed: 0.60 Mbps</t>
+          <t>Download speed: 2.64 Mbps , Upload speed: 5.96 Mbps</t>
         </is>
       </c>
     </row>
@@ -1019,19 +1019,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v>434.76</v>
+        <v>384</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn130127224.opengw.net:1601"&gt;vpn130127224.opengw.net:1601&lt;/a&gt;</t>
+          <t>&lt;a href="vpn500427953.opengw.net:1579"&gt;vpn500427953.opengw.net:1579&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Download speed: 4.63 Mbps , Upload speed: 3.05 Mbps</t>
+          <t>Download speed: 7.44 Mbps , Upload speed: 3.95 Mbps</t>
         </is>
       </c>
     </row>
@@ -1042,42 +1042,42 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C27" t="n">
-        <v>434.97</v>
+        <v>384.73</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn516729088.opengw.net:1710"&gt;vpn516729088.opengw.net:1710&lt;/a&gt;</t>
+          <t>&lt;a href="vpn892113052.opengw.net:1573"&gt;vpn892113052.opengw.net:1573&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Download speed: 5.52 Mbps , Upload speed: 4.83 Mbps</t>
+          <t>Download speed: 4.23 Mbps , Upload speed: 4.67 Mbps</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>435.06</v>
+        <v>385.76</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn602977010.opengw.net:1374"&gt;vpn602977010.opengw.net:1374&lt;/a&gt;</t>
+          <t>&lt;a href="vpn186638089.opengw.net:1829"&gt;vpn186638089.opengw.net:1829&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Download speed: 5.12 Mbps , Upload speed: 3.44 Mbps</t>
+          <t>Download speed: 3.01 Mbps , Upload speed: 4.71 Mbps</t>
         </is>
       </c>
     </row>
@@ -1088,19 +1088,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C29" t="n">
-        <v>436.6</v>
+        <v>394</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn764376508.opengw.net:1625"&gt;vpn764376508.opengw.net:1625&lt;/a&gt;</t>
+          <t>&lt;a href="vpn399440011.opengw.net:1358"&gt;vpn399440011.opengw.net:1358&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Download speed: 2.57 Mbps , Upload speed: 4.76 Mbps</t>
+          <t>Download speed: 2.92 Mbps , Upload speed: 2.97 Mbps</t>
         </is>
       </c>
     </row>
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C30" t="n">
-        <v>437.61</v>
+        <v>407.98</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn171316833.opengw.net:1792"&gt;vpn171316833.opengw.net:1792&lt;/a&gt;</t>
+          <t>&lt;a href="vpn356162935.opengw.net:1717"&gt;vpn356162935.opengw.net:1717&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Download speed: 0.19 Mbps , Upload speed: 0.49 Mbps</t>
+          <t>Download speed: 4.33 Mbps , Upload speed: 1.23 Mbps</t>
         </is>
       </c>
     </row>
@@ -1134,42 +1134,42 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>439.22</v>
+        <v>470.51</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn676706272.opengw.net:1642"&gt;vpn676706272.opengw.net:1642&lt;/a&gt;</t>
+          <t>&lt;a href="vpn481066780.opengw.net:1742"&gt;vpn481066780.opengw.net:1742&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Download speed: 0.48 Mbps , Upload speed: 1.94 Mbps</t>
+          <t>Download speed: 4.36 Mbps , Upload speed: 2.74 Mbps</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="C32" t="n">
-        <v>445.65</v>
+        <v>525.62</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn835327708.opengw.net:1344"&gt;vpn835327708.opengw.net:1344&lt;/a&gt;</t>
+          <t>&lt;a href="vpn431728273.opengw.net:995"&gt;vpn431728273.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Download speed: 0.94 Mbps , Upload speed: 1.39 Mbps</t>
+          <t>Download speed: 4.78 Mbps , Upload speed: 5.23 Mbps</t>
         </is>
       </c>
     </row>
@@ -1180,65 +1180,65 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" t="n">
-        <v>646.12</v>
+        <v>571</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn409210641.opengw.net:1283"&gt;vpn409210641.opengw.net:1283&lt;/a&gt;</t>
+          <t>&lt;a href="vpn171755803.opengw.net:1471"&gt;vpn171755803.opengw.net:1471&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Download speed: 1.38 Mbps , Upload speed: 0.59 Mbps</t>
+          <t>Download speed: 5.01 Mbps , Upload speed: 5.16 Mbps</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C34" t="n">
-        <v>20000</v>
+        <v>571.4400000000001</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn368782254.opengw.net:995"&gt;vpn368782254.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="public-vpn-189.opengw.net"&gt;public-vpn-189.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Download speed: 0.47 Mbps , Upload speed: 1.72 Mbps</t>
+          <t>Download speed: 3.38 Mbps , Upload speed: 5.59 Mbps</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C35" t="n">
-        <v>20000</v>
+        <v>707.3200000000001</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn968385295.opengw.net:995"&gt;vpn968385295.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="public-vpn-137.opengw.net"&gt;public-vpn-137.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Download speed: 0.46 Mbps , Upload speed: 3.19 Mbps</t>
+          <t>Download speed: 2.85 Mbps , Upload speed: 2.66 Mbps</t>
         </is>
       </c>
     </row>
@@ -1249,42 +1249,42 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C36" t="n">
-        <v>20000</v>
+        <v>752</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn656083064.opengw.net:995"&gt;vpn656083064.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn222330211.opengw.net:995"&gt;vpn222330211.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Download speed: 0.61 Mbps , Upload speed: 0.72 Mbps</t>
+          <t>Download speed: 2.66 Mbps , Upload speed: 4.78 Mbps</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C37" t="n">
         <v>20000</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn397506869.opengw.net"&gt;vpn397506869.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn993603250.opengw.net:1609"&gt;vpn993603250.opengw.net:1609&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Download speed: 0.38 Mbps , Upload speed: 1.86 Mbps</t>
+          <t>Download speed: 2.64 Mbps , Upload speed: 6.17 Mbps</t>
         </is>
       </c>
     </row>
@@ -1295,42 +1295,42 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" t="n">
         <v>20000</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn463598151.opengw.net:1255"&gt;vpn463598151.opengw.net:1255&lt;/a&gt;</t>
+          <t>&lt;a href="vpn275969083.opengw.net:995"&gt;vpn275969083.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Download speed: 0.44 Mbps , Upload speed: 1.78 Mbps</t>
+          <t>Download speed: 3.39 Mbps , Upload speed: 4.31 Mbps</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C39" t="n">
         <v>20000</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn621971981.opengw.net:995"&gt;vpn621971981.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn821416686.opengw.net:1770"&gt;vpn821416686.opengw.net:1770&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Download speed: 0.94 Mbps , Upload speed: 3.26 Mbps</t>
+          <t>Download speed: 1.90 Mbps , Upload speed: 5.74 Mbps</t>
         </is>
       </c>
     </row>
@@ -1341,65 +1341,65 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" t="n">
         <v>20000</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn763413581.opengw.net:995"&gt;vpn763413581.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn198305387.opengw.net:995"&gt;vpn198305387.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Download speed: 0.31 Mbps , Upload speed: 1.97 Mbps</t>
+          <t>Download speed: 2.08 Mbps , Upload speed: 6.68 Mbps</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C41" t="n">
         <v>20000</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn928774760.opengw.net:995"&gt;vpn928774760.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn532064779.opengw.net:1635"&gt;vpn532064779.opengw.net:1635&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Download speed: 4.51 Mbps , Upload speed: 3.35 Mbps</t>
+          <t>Download speed: 2.80 Mbps , Upload speed: 7.91 Mbps</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
         <v>20000</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn969788274.opengw.net:995"&gt;vpn969788274.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn716400592.opengw.net:1432"&gt;vpn716400592.opengw.net:1432&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Download speed: 1.40 Mbps , Upload speed: 2.54 Mbps</t>
+          <t>Download speed: 2.32 Mbps , Upload speed: 5.78 Mbps</t>
         </is>
       </c>
     </row>
@@ -1410,19 +1410,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C43" t="n">
         <v>20000</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn667908658.opengw.net:995"&gt;vpn667908658.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn532270651.opengw.net:995"&gt;vpn532270651.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Download speed: 0.80 Mbps , Upload speed: 0.70 Mbps</t>
+          <t>Download speed: 2.96 Mbps , Upload speed: 5.06 Mbps</t>
         </is>
       </c>
     </row>
@@ -1433,65 +1433,65 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C44" t="n">
         <v>20000</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn935822335.opengw.net:995"&gt;vpn935822335.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn588540135.opengw.net:995"&gt;vpn588540135.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Download speed: 0.30 Mbps , Upload speed: 2.36 Mbps</t>
+          <t>Download speed: 2.74 Mbps , Upload speed: 10.25 Mbps</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
         <v>20000</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn849621319.opengw.net:995"&gt;vpn849621319.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn455903860.opengw.net:995"&gt;vpn455903860.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Download speed: 0.64 Mbps , Upload speed: 0.48 Mbps</t>
+          <t>Download speed: 2.57 Mbps , Upload speed: 7.96 Mbps</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C46" t="n">
         <v>20000</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn599998728.opengw.net:995"&gt;vpn599998728.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn609305506.opengw.net:1236"&gt;vpn609305506.opengw.net:1236&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Download speed: 0.55 Mbps , Upload speed: 0.81 Mbps</t>
+          <t>Download speed: 2.96 Mbps , Upload speed: 7.97 Mbps</t>
         </is>
       </c>
     </row>
@@ -1502,19 +1502,19 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C47" t="n">
         <v>20000</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn874182691.opengw.net:995"&gt;vpn874182691.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn506937661.opengw.net:995"&gt;vpn506937661.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Download speed: 1.58 Mbps , Upload speed: 2.85 Mbps</t>
+          <t>Download speed: 2.91 Mbps , Upload speed: 5.40 Mbps</t>
         </is>
       </c>
     </row>
@@ -1532,104 +1532,104 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn439265766.opengw.net:1951"&gt;vpn439265766.opengw.net:1951&lt;/a&gt;</t>
+          <t>&lt;a href="vpn587057222.opengw.net:1817"&gt;vpn587057222.opengw.net:1817&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Download speed: 1.37 Mbps , Upload speed: 0.51 Mbps</t>
+          <t>Download speed: 3.01 Mbps , Upload speed: 6.18 Mbps</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C49" t="n">
         <v>20000</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn668768967.opengw.net:1449"&gt;vpn668768967.opengw.net:1449&lt;/a&gt;</t>
+          <t>&lt;a href="vpn142180822.opengw.net:995"&gt;vpn142180822.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Download speed: 3.35 Mbps , Upload speed: 3.51 Mbps</t>
+          <t>Download speed: 2.35 Mbps , Upload speed: 8.07 Mbps</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C50" t="n">
         <v>20000</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn946171505.opengw.net:1687"&gt;vpn946171505.opengw.net:1687&lt;/a&gt;</t>
+          <t>&lt;a href="vpn753725317.opengw.net:995"&gt;vpn753725317.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Download speed: 4.48 Mbps , Upload speed: 3.34 Mbps</t>
+          <t>Download speed: 1.96 Mbps , Upload speed: 7.79 Mbps</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C51" t="n">
         <v>20000</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn722814351.opengw.net:1353"&gt;vpn722814351.opengw.net:1353&lt;/a&gt;</t>
+          <t>&lt;a href="vpn115620030.opengw.net:1752"&gt;vpn115620030.opengw.net:1752&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Download speed: 2.49 Mbps , Upload speed: 2.58 Mbps</t>
+          <t>Download speed: 2.46 Mbps , Upload speed: 11.95 Mbps</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C52" t="n">
         <v>20000</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn469326190.opengw.net:1826"&gt;vpn469326190.opengw.net:1826&lt;/a&gt;</t>
+          <t>&lt;a href="vpn740179526.opengw.net:1424"&gt;vpn740179526.opengw.net:1424&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Download speed: 2.74 Mbps , Upload speed: 2.46 Mbps</t>
+          <t>Download speed: 2.14 Mbps , Upload speed: 4.68 Mbps</t>
         </is>
       </c>
     </row>
@@ -1640,65 +1640,65 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C53" t="n">
         <v>20000</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn576289479.opengw.net:1966"&gt;vpn576289479.opengw.net:1966&lt;/a&gt;</t>
+          <t>&lt;a href="vpn911035636.opengw.net:1864"&gt;vpn911035636.opengw.net:1864&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Download speed: 2.64 Mbps , Upload speed: 2.33 Mbps</t>
+          <t>Download speed: 2.84 Mbps , Upload speed: 8.91 Mbps</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
         <v>20000</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn857733068.opengw.net:1255"&gt;vpn857733068.opengw.net:1255&lt;/a&gt;</t>
+          <t>&lt;a href="vpn328453761.opengw.net:1444"&gt;vpn328453761.opengw.net:1444&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Download speed: 3.20 Mbps , Upload speed: 1.87 Mbps</t>
+          <t>Download speed: 1.75 Mbps , Upload speed: 8.87 Mbps</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
         <v>20000</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn598363145.opengw.net:1660"&gt;vpn598363145.opengw.net:1660&lt;/a&gt;</t>
+          <t>&lt;a href="vpn397506869.opengw.net"&gt;vpn397506869.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Download speed: 3.04 Mbps , Upload speed: 6.79 Mbps</t>
+          <t>Download speed: 3.74 Mbps , Upload speed: 8.78 Mbps</t>
         </is>
       </c>
     </row>
@@ -1709,65 +1709,65 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C56" t="n">
         <v>20000</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn925855912.opengw.net:1682"&gt;vpn925855912.opengw.net:1682&lt;/a&gt;</t>
+          <t>&lt;a href="vpn454567851.opengw.net:1683"&gt;vpn454567851.opengw.net:1683&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Download speed: 2.60 Mbps , Upload speed: 2.26 Mbps</t>
+          <t>Download speed: 2.77 Mbps , Upload speed: 7.02 Mbps</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C57" t="n">
         <v>20000</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn412274570.opengw.net:1379"&gt;vpn412274570.opengw.net:1379&lt;/a&gt;</t>
+          <t>&lt;a href="vpn271804397.opengw.net:995"&gt;vpn271804397.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Download speed: 4.30 Mbps , Upload speed: 4.26 Mbps</t>
+          <t>Download speed: 2.66 Mbps , Upload speed: 8.27 Mbps</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C58" t="n">
         <v>20000</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn512785343.opengw.net"&gt;vpn512785343.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn677791059.opengw.net:995"&gt;vpn677791059.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Download speed: 6.41 Mbps , Upload speed: 8.14 Mbps</t>
+          <t>Download speed: 3.04 Mbps , Upload speed: 4.47 Mbps</t>
         </is>
       </c>
     </row>
@@ -1778,19 +1778,19 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C59" t="n">
         <v>20000</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn20230415.opengw.net"&gt;vpn20230415.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn946171505.opengw.net:1687"&gt;vpn946171505.opengw.net:1687&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Download speed: 2.81 Mbps , Upload speed: 3.49 Mbps</t>
+          <t>Download speed: 1.97 Mbps , Upload speed: 5.86 Mbps</t>
         </is>
       </c>
     </row>
@@ -1801,19 +1801,19 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C60" t="n">
         <v>20000</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn207450035.opengw.net:1279"&gt;vpn207450035.opengw.net:1279&lt;/a&gt;</t>
+          <t>&lt;a href="vpn851086826.opengw.net:1647"&gt;vpn851086826.opengw.net:1647&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Download speed: 2.40 Mbps , Upload speed: 4.46 Mbps</t>
+          <t>Download speed: 3.61 Mbps , Upload speed: 9.79 Mbps</t>
         </is>
       </c>
     </row>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C61" t="n">
         <v>20000</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn423986877.opengw.net:1989"&gt;vpn423986877.opengw.net:1989&lt;/a&gt;</t>
+          <t>&lt;a href="vpn468879435.opengw.net:1374"&gt;vpn468879435.opengw.net:1374&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Download speed: 8.95 Mbps , Upload speed: 1.87 Mbps</t>
+          <t>Download speed: 6.54 Mbps , Upload speed: 6.67 Mbps</t>
         </is>
       </c>
     </row>
@@ -1847,19 +1847,19 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C62" t="n">
         <v>20000</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn991950200.opengw.net:1464"&gt;vpn991950200.opengw.net:1464&lt;/a&gt;</t>
+          <t>&lt;a href="vpn413481711.opengw.net:1497"&gt;vpn413481711.opengw.net:1497&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Download speed: 3.45 Mbps , Upload speed: 3.72 Mbps</t>
+          <t>Download speed: 2.82 Mbps , Upload speed: 7.55 Mbps</t>
         </is>
       </c>
     </row>
@@ -1870,19 +1870,19 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C63" t="n">
         <v>20000</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn413271508.opengw.net:1789"&gt;vpn413271508.opengw.net:1789&lt;/a&gt;</t>
+          <t>&lt;a href="vpn439625823.opengw.net:1742"&gt;vpn439625823.opengw.net:1742&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Download speed: 6.01 Mbps , Upload speed: 4.60 Mbps</t>
+          <t>Download speed: 1.85 Mbps , Upload speed: 5.20 Mbps</t>
         </is>
       </c>
     </row>
@@ -1893,19 +1893,19 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C64" t="n">
         <v>20000</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn550981730.opengw.net:1674"&gt;vpn550981730.opengw.net:1674&lt;/a&gt;</t>
+          <t>&lt;a href="vpn827001986.opengw.net:1314"&gt;vpn827001986.opengw.net:1314&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Download speed: 4.74 Mbps , Upload speed: 3.53 Mbps</t>
+          <t>Download speed: 2.41 Mbps , Upload speed: 7.01 Mbps</t>
         </is>
       </c>
     </row>
@@ -1916,19 +1916,19 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C65" t="n">
         <v>20000</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn447034596.opengw.net:1449"&gt;vpn447034596.opengw.net:1449&lt;/a&gt;</t>
+          <t>&lt;a href="vpn918805802.opengw.net:1348"&gt;vpn918805802.opengw.net:1348&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Download speed: 1.86 Mbps , Upload speed: 4.17 Mbps</t>
+          <t>Download speed: 2.22 Mbps , Upload speed: 6.58 Mbps</t>
         </is>
       </c>
     </row>
@@ -1939,42 +1939,42 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C66" t="n">
         <v>20000</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn845381893.opengw.net:1750"&gt;vpn845381893.opengw.net:1750&lt;/a&gt;</t>
+          <t>&lt;a href="vpn573538269.opengw.net:1209"&gt;vpn573538269.opengw.net:1209&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Download speed: 6.19 Mbps , Upload speed: 4.33 Mbps</t>
+          <t>Download speed: 2.99 Mbps , Upload speed: 4.21 Mbps</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C67" t="n">
         <v>20000</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn600219540.opengw.net:1353"&gt;vpn600219540.opengw.net:1353&lt;/a&gt;</t>
+          <t>&lt;a href="vpn324885013.opengw.net:995"&gt;vpn324885013.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Download speed: 4.19 Mbps , Upload speed: 2.59 Mbps</t>
+          <t>Download speed: 3.13 Mbps , Upload speed: 6.60 Mbps</t>
         </is>
       </c>
     </row>
@@ -1992,12 +1992,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn662919681.opengw.net:995"&gt;vpn662919681.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn545965201.opengw.net:995"&gt;vpn545965201.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Download speed: 4.73 Mbps , Upload speed: 4.39 Mbps</t>
+          <t>Download speed: 2.61 Mbps , Upload speed: 5.27 Mbps</t>
         </is>
       </c>
     </row>
@@ -2015,127 +2015,265 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn380548616.opengw.net:995"&gt;vpn380548616.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn636861559.opengw.net:995"&gt;vpn636861559.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Download speed: 2.84 Mbps , Upload speed: 3.65 Mbps</t>
+          <t>Download speed: 2.41 Mbps , Upload speed: 7.31 Mbps</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="C70" t="n">
         <v>20000</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn594270543.opengw.net:995"&gt;vpn594270543.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn461892137.opengw.net:995"&gt;vpn461892137.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Download speed: 2.56 Mbps , Upload speed: 1.83 Mbps</t>
+          <t>Download speed: 2.99 Mbps , Upload speed: 4.15 Mbps</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C71" t="n">
         <v>20000</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn241935226.opengw.net:1971"&gt;vpn241935226.opengw.net:1971&lt;/a&gt;</t>
+          <t>&lt;a href="vpn341363698.opengw.net:1892"&gt;vpn341363698.opengw.net:1892&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Download speed: 2.24 Mbps , Upload speed: 4.09 Mbps</t>
+          <t>Download speed: 2.26 Mbps , Upload speed: 3.58 Mbps</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C72" t="n">
         <v>20000</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn111743189.opengw.net:995"&gt;vpn111743189.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn799348267.opengw.net:1278"&gt;vpn799348267.opengw.net:1278&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Download speed: 2.77 Mbps , Upload speed: 1.52 Mbps</t>
+          <t>Download speed: 4.94 Mbps , Upload speed: 4.20 Mbps</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C73" t="n">
         <v>20000</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn739296627.opengw.net:995"&gt;vpn739296627.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn865760186.opengw.net:1849"&gt;vpn865760186.opengw.net:1849&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Download speed: 2.96 Mbps , Upload speed: 2.72 Mbps</t>
+          <t>Download speed: 2.84 Mbps , Upload speed: 5.08 Mbps</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>279</v>
+        <v>7</v>
       </c>
       <c r="C74" t="n">
         <v>20000</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn720685883.opengw.net:1940"&gt;vpn720685883.opengw.net:1940&lt;/a&gt;</t>
+          <t>&lt;a href="vpn727425353.opengw.net:1552"&gt;vpn727425353.opengw.net:1552&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Download speed: 3.70 Mbps , Upload speed: 1.61 Mbps</t>
+          <t>Download speed: 2.16 Mbps , Upload speed: 4.76 Mbps</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Korea Republic of</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>29</v>
+      </c>
+      <c r="C75" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>&lt;a href="vpn784169523.opengw.net:995"&gt;vpn784169523.opengw.net:995&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Download speed: 1.94 Mbps , Upload speed: 6.31 Mbps</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Korea Republic of</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>30</v>
+      </c>
+      <c r="C76" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>&lt;a href="vpn554237937.opengw.net:995"&gt;vpn554237937.opengw.net:995&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Download speed: 2.64 Mbps , Upload speed: 11.11 Mbps</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>&lt;a href="vpn613193070.opengw.net:1398"&gt;vpn613193070.opengw.net:1398&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Download speed: 2.54 Mbps , Upload speed: 6.78 Mbps</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>13</v>
+      </c>
+      <c r="C78" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>&lt;a href="vpn525742377.opengw.net:1511"&gt;vpn525742377.opengw.net:1511&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Download speed: 3.43 Mbps , Upload speed: 5.23 Mbps</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Korea Republic of</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>31</v>
+      </c>
+      <c r="C79" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>&lt;a href="vpn759838852.opengw.net:995"&gt;vpn759838852.opengw.net:995&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Download speed: 2.62 Mbps , Upload speed: 8.85 Mbps</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>157</v>
+      </c>
+      <c r="C80" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>&lt;a href="vpn722210664.opengw.net:1787"&gt;vpn722210664.opengw.net:1787&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Download speed: 2.04 Mbps , Upload speed: 4.66 Mbps</t>
         </is>
       </c>
     </row>

--- a/sstp.xlsx
+++ b/sstp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,69 +463,69 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="C2" t="n">
-        <v>154.32</v>
+        <v>124</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn431396938.opengw.net"&gt;vpn431396938.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn432295087.opengw.net"&gt;vpn432295087.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Download speed: 2.22 Mbps , Upload speed: 8.64 Mbps</t>
+          <t>Download speed: 2.81 Mbps , Upload speed: 8.35 Mbps</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn432295087.opengw.net"&gt;vpn432295087.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn431396938.opengw.net"&gt;vpn431396938.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Download speed: 2.76 Mbps , Upload speed: 7.71 Mbps</t>
+          <t>Download speed: 2.30 Mbps , Upload speed: 6.53 Mbps</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>220.26</v>
+        <v>164.33</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn265121650.opengw.net:1512"&gt;vpn265121650.opengw.net:1512&lt;/a&gt;</t>
+          <t>&lt;a href="vpn718388950.opengw.net:992"&gt;vpn718388950.opengw.net:992&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Download speed: 3.97 Mbps , Upload speed: 5.67 Mbps</t>
+          <t>Download speed: 2.71 Mbps , Upload speed: 8.22 Mbps</t>
         </is>
       </c>
     </row>
@@ -536,111 +536,111 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>231.91</v>
+        <v>201.22</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn292007283.opengw.net:1245"&gt;vpn292007283.opengw.net:1245&lt;/a&gt;</t>
+          <t>&lt;a href="vpn591117518.opengw.net:1239"&gt;vpn591117518.opengw.net:1239&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Download speed: 2.69 Mbps , Upload speed: 6.96 Mbps</t>
+          <t>Download speed: 2.66 Mbps , Upload speed: 4.69 Mbps</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>268.87</v>
+        <v>228.71</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn492608530.opengw.net:1782"&gt;vpn492608530.opengw.net:1782&lt;/a&gt;</t>
+          <t>&lt;a href="vpn738238497.opengw.net:1493"&gt;vpn738238497.opengw.net:1493&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Download speed: 2.62 Mbps , Upload speed: 5.10 Mbps</t>
+          <t>Download speed: 2.89 Mbps , Upload speed: 4.81 Mbps</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>314.42</v>
+        <v>232.46</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn390135640.opengw.net:1845"&gt;vpn390135640.opengw.net:1845&lt;/a&gt;</t>
+          <t>&lt;a href="vpn403703026.opengw.net:1545"&gt;vpn403703026.opengw.net:1545&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Download speed: 2.05 Mbps , Upload speed: 3.76 Mbps</t>
+          <t>Download speed: 4.78 Mbps , Upload speed: 4.16 Mbps</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>320.83</v>
+        <v>237.34</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn640000203.opengw.net:1301"&gt;vpn640000203.opengw.net:1301&lt;/a&gt;</t>
+          <t>&lt;a href="vpn879466818.opengw.net:1962"&gt;vpn879466818.opengw.net:1962&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Download speed: 3.13 Mbps , Upload speed: 5.41 Mbps</t>
+          <t>Download speed: 3.08 Mbps , Upload speed: 5.90 Mbps</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>321.01</v>
+        <v>301.21</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn541213008.opengw.net:1266"&gt;vpn541213008.opengw.net:1266&lt;/a&gt;</t>
+          <t>&lt;a href="vpn125101970.opengw.net:1377"&gt;vpn125101970.opengw.net:1377&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Download speed: 2.44 Mbps , Upload speed: 3.70 Mbps</t>
+          <t>Download speed: 4.03 Mbps , Upload speed: 7.16 Mbps</t>
         </is>
       </c>
     </row>
@@ -651,157 +651,157 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>331.31</v>
+        <v>319.34</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn100883408.opengw.net:1264"&gt;vpn100883408.opengw.net:1264&lt;/a&gt;</t>
+          <t>&lt;a href="public-vpn-189.opengw.net"&gt;public-vpn-189.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Download speed: 2.52 Mbps , Upload speed: 5.25 Mbps</t>
+          <t>Download speed: 2.89 Mbps , Upload speed: 5.09 Mbps</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
-        <v>331.99</v>
+        <v>319.58</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn966962787.opengw.net:1989"&gt;vpn966962787.opengw.net:1989&lt;/a&gt;</t>
+          <t>&lt;a href="public-vpn-88.opengw.net"&gt;public-vpn-88.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Download speed: 3.18 Mbps , Upload speed: 3.94 Mbps</t>
+          <t>Download speed: 2.88 Mbps , Upload speed: 3.55 Mbps</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>337.76</v>
+        <v>328.31</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>&lt;a href="public-vpn-170.opengw.net"&gt;public-vpn-170.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn966868128.opengw.net:1956"&gt;vpn966868128.opengw.net:1956&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Download speed: 4.75 Mbps , Upload speed: 5.15 Mbps</t>
+          <t>Download speed: 2.15 Mbps , Upload speed: 4.20 Mbps</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>341.76</v>
+        <v>329</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn384625373.opengw.net:1991"&gt;vpn384625373.opengw.net:1991&lt;/a&gt;</t>
+          <t>&lt;a href="vpn504215950.opengw.net:1536"&gt;vpn504215950.opengw.net:1536&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Download speed: 2.00 Mbps , Upload speed: 2.45 Mbps</t>
+          <t>Download speed: 2.05 Mbps , Upload speed: 6.60 Mbps</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C14" t="n">
-        <v>344.12</v>
+        <v>330.38</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn220029809.opengw.net:1653"&gt;vpn220029809.opengw.net:1653&lt;/a&gt;</t>
+          <t>&lt;a href="public-vpn-137.opengw.net"&gt;public-vpn-137.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Download speed: 4.26 Mbps , Upload speed: 7.14 Mbps</t>
+          <t>Download speed: 3.39 Mbps , Upload speed: 4.09 Mbps</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>344.18</v>
+        <v>333.57</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn331871080.opengw.net:1967"&gt;vpn331871080.opengw.net:1967&lt;/a&gt;</t>
+          <t>&lt;a href="vpn839157538.opengw.net:1482"&gt;vpn839157538.opengw.net:1482&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Download speed: 2.49 Mbps , Upload speed: 4.47 Mbps</t>
+          <t>Download speed: 4.76 Mbps , Upload speed: 2.77 Mbps</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>344.42</v>
+        <v>343.47</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn260197435.opengw.net:1801"&gt;vpn260197435.opengw.net:1801&lt;/a&gt;</t>
+          <t>&lt;a href="vpn252262778.opengw.net:1553"&gt;vpn252262778.opengw.net:1553&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Download speed: 4.22 Mbps , Upload speed: 3.71 Mbps</t>
+          <t>Download speed: 4.44 Mbps , Upload speed: 7.92 Mbps</t>
         </is>
       </c>
     </row>
@@ -812,19 +812,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n">
-        <v>350.01</v>
+        <v>345.51</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn487977480.opengw.net:1708"&gt;vpn487977480.opengw.net:1708&lt;/a&gt;</t>
+          <t>&lt;a href="vpn713719942.opengw.net:1502"&gt;vpn713719942.opengw.net:1502&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Download speed: 5.95 Mbps , Upload speed: 3.80 Mbps</t>
+          <t>Download speed: 2.73 Mbps , Upload speed: 2.80 Mbps</t>
         </is>
       </c>
     </row>
@@ -835,88 +835,88 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C18" t="n">
-        <v>350.63</v>
+        <v>345.61</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn984051294.opengw.net:1267"&gt;vpn984051294.opengw.net:1267&lt;/a&gt;</t>
+          <t>&lt;a href="vpn487977480.opengw.net:1708"&gt;vpn487977480.opengw.net:1708&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Download speed: 3.50 Mbps , Upload speed: 5.76 Mbps</t>
+          <t>Download speed: 5.28 Mbps , Upload speed: 9.58 Mbps</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C19" t="n">
-        <v>353</v>
+        <v>346.47</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn600707398.opengw.net:1899"&gt;vpn600707398.opengw.net:1899&lt;/a&gt;</t>
+          <t>&lt;a href="vpn447833455.opengw.net:1478"&gt;vpn447833455.opengw.net:1478&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Download speed: 6.51 Mbps , Upload speed: 3.17 Mbps</t>
+          <t>Download speed: 4.10 Mbps , Upload speed: 4.07 Mbps</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>353.84</v>
+        <v>348.36</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn480575261.opengw.net:1216"&gt;vpn480575261.opengw.net:1216&lt;/a&gt;</t>
+          <t>&lt;a href="vpn375107451.opengw.net:1799"&gt;vpn375107451.opengw.net:1799&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Download speed: 2.04 Mbps , Upload speed: 7.52 Mbps</t>
+          <t>Download speed: 2.05 Mbps , Upload speed: 5.55 Mbps</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C21" t="n">
-        <v>356</v>
+        <v>348.64</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn129028469.opengw.net:1973"&gt;vpn129028469.opengw.net:1973&lt;/a&gt;</t>
+          <t>&lt;a href="vpn235611065.opengw.net:1473"&gt;vpn235611065.opengw.net:1473&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Download speed: 2.09 Mbps , Upload speed: 5.22 Mbps</t>
+          <t>Download speed: 3.87 Mbps , Upload speed: 4.27 Mbps</t>
         </is>
       </c>
     </row>
@@ -927,19 +927,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22" t="n">
-        <v>357.67</v>
+        <v>350.34</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn862236868.opengw.net:995"&gt;vpn862236868.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn291667441.opengw.net:1206"&gt;vpn291667441.opengw.net:1206&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Download speed: 2.26 Mbps , Upload speed: 5.50 Mbps</t>
+          <t>Download speed: 3.91 Mbps , Upload speed: 5.65 Mbps</t>
         </is>
       </c>
     </row>
@@ -950,42 +950,42 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" t="n">
-        <v>364.47</v>
+        <v>351.65</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn398510953.opengw.net:1727"&gt;vpn398510953.opengw.net:1727&lt;/a&gt;</t>
+          <t>&lt;a href="vpn232960273.opengw.net:1846"&gt;vpn232960273.opengw.net:1846&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Download speed: 6.73 Mbps , Upload speed: 3.55 Mbps</t>
+          <t>Download speed: 2.20 Mbps , Upload speed: 2.20 Mbps</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C24" t="n">
-        <v>370.02</v>
+        <v>352.5</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>&lt;a href="public-vpn-88.opengw.net"&gt;public-vpn-88.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn174240024.opengw.net:1325"&gt;vpn174240024.opengw.net:1325&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Download speed: 2.57 Mbps , Upload speed: 7.56 Mbps</t>
+          <t>Download speed: 4.15 Mbps , Upload speed: 5.56 Mbps</t>
         </is>
       </c>
     </row>
@@ -999,16 +999,16 @@
         <v>33</v>
       </c>
       <c r="C25" t="n">
-        <v>372.26</v>
+        <v>353.35</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn166393958.opengw.net:1488"&gt;vpn166393958.opengw.net:1488&lt;/a&gt;</t>
+          <t>&lt;a href="vpn835006700.opengw.net:1387"&gt;vpn835006700.opengw.net:1387&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Download speed: 2.64 Mbps , Upload speed: 5.96 Mbps</t>
+          <t>Download speed: 1.82 Mbps , Upload speed: 3.71 Mbps</t>
         </is>
       </c>
     </row>
@@ -1019,19 +1019,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C26" t="n">
-        <v>384</v>
+        <v>353.56</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn500427953.opengw.net:1579"&gt;vpn500427953.opengw.net:1579&lt;/a&gt;</t>
+          <t>&lt;a href="vpn598084563.opengw.net:1866"&gt;vpn598084563.opengw.net:1866&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Download speed: 7.44 Mbps , Upload speed: 3.95 Mbps</t>
+          <t>Download speed: 4.14 Mbps , Upload speed: 7.83 Mbps</t>
         </is>
       </c>
     </row>
@@ -1042,42 +1042,42 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C27" t="n">
-        <v>384.73</v>
+        <v>354.36</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn892113052.opengw.net:1573"&gt;vpn892113052.opengw.net:1573&lt;/a&gt;</t>
+          <t>&lt;a href="vpn240061180.opengw.net:1285"&gt;vpn240061180.opengw.net:1285&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Download speed: 4.23 Mbps , Upload speed: 4.67 Mbps</t>
+          <t>Download speed: 2.45 Mbps , Upload speed: 4.50 Mbps</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C28" t="n">
-        <v>385.76</v>
+        <v>356.49</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn186638089.opengw.net:1829"&gt;vpn186638089.opengw.net:1829&lt;/a&gt;</t>
+          <t>&lt;a href="vpn903049911.opengw.net:1389"&gt;vpn903049911.opengw.net:1389&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Download speed: 3.01 Mbps , Upload speed: 4.71 Mbps</t>
+          <t>Download speed: 2.79 Mbps , Upload speed: 12.29 Mbps</t>
         </is>
       </c>
     </row>
@@ -1088,19 +1088,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C29" t="n">
-        <v>394</v>
+        <v>356.89</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn399440011.opengw.net:1358"&gt;vpn399440011.opengw.net:1358&lt;/a&gt;</t>
+          <t>&lt;a href="vpn640828866.opengw.net:1407"&gt;vpn640828866.opengw.net:1407&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Download speed: 2.92 Mbps , Upload speed: 2.97 Mbps</t>
+          <t>Download speed: 3.16 Mbps , Upload speed: 9.79 Mbps</t>
         </is>
       </c>
     </row>
@@ -1111,65 +1111,65 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>407.98</v>
+        <v>358.08</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn356162935.opengw.net:1717"&gt;vpn356162935.opengw.net:1717&lt;/a&gt;</t>
+          <t>&lt;a href="vpn647586677.opengw.net:1211"&gt;vpn647586677.opengw.net:1211&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Download speed: 4.33 Mbps , Upload speed: 1.23 Mbps</t>
+          <t>Download speed: 2.75 Mbps , Upload speed: 7.40 Mbps</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C31" t="n">
-        <v>470.51</v>
+        <v>358.11</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn481066780.opengw.net:1742"&gt;vpn481066780.opengw.net:1742&lt;/a&gt;</t>
+          <t>&lt;a href="vpn285980626.opengw.net:995"&gt;vpn285980626.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Download speed: 4.36 Mbps , Upload speed: 2.74 Mbps</t>
+          <t>Download speed: 3.59 Mbps , Upload speed: 9.75 Mbps</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="C32" t="n">
-        <v>525.62</v>
+        <v>358.33</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn431728273.opengw.net:995"&gt;vpn431728273.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn463598151.opengw.net:1255"&gt;vpn463598151.opengw.net:1255&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Download speed: 4.78 Mbps , Upload speed: 5.23 Mbps</t>
+          <t>Download speed: 2.83 Mbps , Upload speed: 5.68 Mbps</t>
         </is>
       </c>
     </row>
@@ -1180,65 +1180,65 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>571</v>
+        <v>361.27</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn171755803.opengw.net:1471"&gt;vpn171755803.opengw.net:1471&lt;/a&gt;</t>
+          <t>&lt;a href="vpn107334606.opengw.net:1744"&gt;vpn107334606.opengw.net:1744&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Download speed: 5.01 Mbps , Upload speed: 5.16 Mbps</t>
+          <t>Download speed: 7.14 Mbps , Upload speed: 4.44 Mbps</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C34" t="n">
-        <v>571.4400000000001</v>
+        <v>363.34</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>&lt;a href="public-vpn-189.opengw.net"&gt;public-vpn-189.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn103423804.opengw.net:1773"&gt;vpn103423804.opengw.net:1773&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Download speed: 3.38 Mbps , Upload speed: 5.59 Mbps</t>
+          <t>Download speed: 2.94 Mbps , Upload speed: 4.60 Mbps</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C35" t="n">
-        <v>707.3200000000001</v>
+        <v>365.24</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>&lt;a href="public-vpn-137.opengw.net"&gt;public-vpn-137.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn539454192.opengw.net:1779"&gt;vpn539454192.opengw.net:1779&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Download speed: 2.85 Mbps , Upload speed: 2.66 Mbps</t>
+          <t>Download speed: 3.81 Mbps , Upload speed: 3.80 Mbps</t>
         </is>
       </c>
     </row>
@@ -1249,88 +1249,88 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C36" t="n">
-        <v>752</v>
+        <v>367.22</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn222330211.opengw.net:995"&gt;vpn222330211.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn227223638.opengw.net:1871"&gt;vpn227223638.opengw.net:1871&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Download speed: 2.66 Mbps , Upload speed: 4.78 Mbps</t>
+          <t>Download speed: 7.07 Mbps , Upload speed: 6.92 Mbps</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C37" t="n">
-        <v>20000</v>
+        <v>379.15</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn993603250.opengw.net:1609"&gt;vpn993603250.opengw.net:1609&lt;/a&gt;</t>
+          <t>&lt;a href="vpn134798690.opengw.net:1758"&gt;vpn134798690.opengw.net:1758&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Download speed: 2.64 Mbps , Upload speed: 6.17 Mbps</t>
+          <t>Download speed: 2.48 Mbps , Upload speed: 6.38 Mbps</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C38" t="n">
-        <v>20000</v>
+        <v>403.18</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn275969083.opengw.net:995"&gt;vpn275969083.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn465807589.opengw.net:1449"&gt;vpn465807589.opengw.net:1449&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Download speed: 3.39 Mbps , Upload speed: 4.31 Mbps</t>
+          <t>Download speed: 7.09 Mbps , Upload speed: 6.78 Mbps</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C39" t="n">
-        <v>20000</v>
+        <v>438.62</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn821416686.opengw.net:1770"&gt;vpn821416686.opengw.net:1770&lt;/a&gt;</t>
+          <t>&lt;a href="vpn156412051.opengw.net:1752"&gt;vpn156412051.opengw.net:1752&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Download speed: 1.90 Mbps , Upload speed: 5.74 Mbps</t>
+          <t>Download speed: 2.23 Mbps , Upload speed: 7.82 Mbps</t>
         </is>
       </c>
     </row>
@@ -1341,65 +1341,65 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" t="n">
         <v>20000</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn198305387.opengw.net:995"&gt;vpn198305387.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn368782254.opengw.net:995"&gt;vpn368782254.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Download speed: 2.08 Mbps , Upload speed: 6.68 Mbps</t>
+          <t>Download speed: 2.95 Mbps , Upload speed: 7.58 Mbps</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C41" t="n">
         <v>20000</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn532064779.opengw.net:1635"&gt;vpn532064779.opengw.net:1635&lt;/a&gt;</t>
+          <t>&lt;a href="vpn389909228.opengw.net:995"&gt;vpn389909228.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Download speed: 2.80 Mbps , Upload speed: 7.91 Mbps</t>
+          <t>Download speed: 2.88 Mbps , Upload speed: 8.76 Mbps</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C42" t="n">
         <v>20000</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn716400592.opengw.net:1432"&gt;vpn716400592.opengw.net:1432&lt;/a&gt;</t>
+          <t>&lt;a href="vpn846611798.opengw.net:995"&gt;vpn846611798.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Download speed: 2.32 Mbps , Upload speed: 5.78 Mbps</t>
+          <t>Download speed: 5.81 Mbps , Upload speed: 5.34 Mbps</t>
         </is>
       </c>
     </row>
@@ -1410,19 +1410,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C43" t="n">
         <v>20000</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn532270651.opengw.net:995"&gt;vpn532270651.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn739896725.opengw.net:995"&gt;vpn739896725.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Download speed: 2.96 Mbps , Upload speed: 5.06 Mbps</t>
+          <t>Download speed: 2.16 Mbps , Upload speed: 6.87 Mbps</t>
         </is>
       </c>
     </row>
@@ -1433,203 +1433,203 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" t="n">
         <v>20000</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn588540135.opengw.net:995"&gt;vpn588540135.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn794819511.opengw.net:995"&gt;vpn794819511.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Download speed: 2.74 Mbps , Upload speed: 10.25 Mbps</t>
+          <t>Download speed: 2.64 Mbps , Upload speed: 5.10 Mbps</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C45" t="n">
         <v>20000</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn455903860.opengw.net:995"&gt;vpn455903860.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn919107224.opengw.net:995"&gt;vpn919107224.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Download speed: 2.57 Mbps , Upload speed: 7.96 Mbps</t>
+          <t>Download speed: 2.07 Mbps , Upload speed: 6.05 Mbps</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C46" t="n">
         <v>20000</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn609305506.opengw.net:1236"&gt;vpn609305506.opengw.net:1236&lt;/a&gt;</t>
+          <t>&lt;a href="vpn234107942.opengw.net:995"&gt;vpn234107942.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Download speed: 2.96 Mbps , Upload speed: 7.97 Mbps</t>
+          <t>Download speed: 2.41 Mbps , Upload speed: 10.33 Mbps</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C47" t="n">
         <v>20000</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn506937661.opengw.net:995"&gt;vpn506937661.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn739570983.opengw.net:1271"&gt;vpn739570983.opengw.net:1271&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Download speed: 2.91 Mbps , Upload speed: 5.40 Mbps</t>
+          <t>Download speed: 2.57 Mbps , Upload speed: 8.76 Mbps</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C48" t="n">
         <v>20000</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn587057222.opengw.net:1817"&gt;vpn587057222.opengw.net:1817&lt;/a&gt;</t>
+          <t>&lt;a href="vpn806019911.opengw.net:995"&gt;vpn806019911.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Download speed: 3.01 Mbps , Upload speed: 6.18 Mbps</t>
+          <t>Download speed: 2.74 Mbps , Upload speed: 8.09 Mbps</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
         <v>20000</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn142180822.opengw.net:995"&gt;vpn142180822.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn755076786.opengw.net:1336"&gt;vpn755076786.opengw.net:1336&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Download speed: 2.35 Mbps , Upload speed: 8.07 Mbps</t>
+          <t>Download speed: 1.75 Mbps , Upload speed: 6.17 Mbps</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C50" t="n">
         <v>20000</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn753725317.opengw.net:995"&gt;vpn753725317.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn536044436.opengw.net:1949"&gt;vpn536044436.opengw.net:1949&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Download speed: 1.96 Mbps , Upload speed: 7.79 Mbps</t>
+          <t>Download speed: 5.06 Mbps , Upload speed: 5.10 Mbps</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C51" t="n">
         <v>20000</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn115620030.opengw.net:1752"&gt;vpn115620030.opengw.net:1752&lt;/a&gt;</t>
+          <t>&lt;a href="vpn189868531.opengw.net:1899"&gt;vpn189868531.opengw.net:1899&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Download speed: 2.46 Mbps , Upload speed: 11.95 Mbps</t>
+          <t>Download speed: 2.16 Mbps , Upload speed: 9.16 Mbps</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C52" t="n">
         <v>20000</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn740179526.opengw.net:1424"&gt;vpn740179526.opengw.net:1424&lt;/a&gt;</t>
+          <t>&lt;a href="vpn698996866.opengw.net:1774"&gt;vpn698996866.opengw.net:1774&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Download speed: 2.14 Mbps , Upload speed: 4.68 Mbps</t>
+          <t>Download speed: 4.13 Mbps , Upload speed: 8.07 Mbps</t>
         </is>
       </c>
     </row>
@@ -1640,65 +1640,65 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C53" t="n">
         <v>20000</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn911035636.opengw.net:1864"&gt;vpn911035636.opengw.net:1864&lt;/a&gt;</t>
+          <t>&lt;a href="vpn490668106.opengw.net:1397"&gt;vpn490668106.opengw.net:1397&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Download speed: 2.84 Mbps , Upload speed: 8.91 Mbps</t>
+          <t>Download speed: 2.41 Mbps , Upload speed: 7.59 Mbps</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C54" t="n">
         <v>20000</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn328453761.opengw.net:1444"&gt;vpn328453761.opengw.net:1444&lt;/a&gt;</t>
+          <t>&lt;a href="vpn425236269.opengw.net:1701"&gt;vpn425236269.opengw.net:1701&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Download speed: 1.75 Mbps , Upload speed: 8.87 Mbps</t>
+          <t>Download speed: 4.12 Mbps , Upload speed: 8.92 Mbps</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C55" t="n">
         <v>20000</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn397506869.opengw.net"&gt;vpn397506869.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn598665898.opengw.net:1492"&gt;vpn598665898.opengw.net:1492&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Download speed: 3.74 Mbps , Upload speed: 8.78 Mbps</t>
+          <t>Download speed: 3.71 Mbps , Upload speed: 9.26 Mbps</t>
         </is>
       </c>
     </row>
@@ -1709,111 +1709,111 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C56" t="n">
         <v>20000</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn454567851.opengw.net:1683"&gt;vpn454567851.opengw.net:1683&lt;/a&gt;</t>
+          <t>&lt;a href="vpn991950200.opengw.net:1464"&gt;vpn991950200.opengw.net:1464&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Download speed: 2.77 Mbps , Upload speed: 7.02 Mbps</t>
+          <t>Download speed: 3.10 Mbps , Upload speed: 3.85 Mbps</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C57" t="n">
         <v>20000</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn271804397.opengw.net:995"&gt;vpn271804397.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn525742377.opengw.net:1511"&gt;vpn525742377.opengw.net:1511&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Download speed: 2.66 Mbps , Upload speed: 8.27 Mbps</t>
+          <t>Download speed: 1.56 Mbps , Upload speed: 8.06 Mbps</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C58" t="n">
         <v>20000</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn677791059.opengw.net:995"&gt;vpn677791059.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn595699885.opengw.net:1962"&gt;vpn595699885.opengw.net:1962&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Download speed: 3.04 Mbps , Upload speed: 4.47 Mbps</t>
+          <t>Download speed: 4.26 Mbps , Upload speed: 7.64 Mbps</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C59" t="n">
         <v>20000</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn946171505.opengw.net:1687"&gt;vpn946171505.opengw.net:1687&lt;/a&gt;</t>
+          <t>&lt;a href="vpn405367579.opengw.net:1976"&gt;vpn405367579.opengw.net:1976&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Download speed: 1.97 Mbps , Upload speed: 5.86 Mbps</t>
+          <t>Download speed: 2.18 Mbps , Upload speed: 9.69 Mbps</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C60" t="n">
         <v>20000</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn851086826.opengw.net:1647"&gt;vpn851086826.opengw.net:1647&lt;/a&gt;</t>
+          <t>&lt;a href="maychu88.opengw.net:992"&gt;maychu88.opengw.net:992&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Download speed: 3.61 Mbps , Upload speed: 9.79 Mbps</t>
+          <t>Download speed: 3.38 Mbps , Upload speed: 5.82 Mbps</t>
         </is>
       </c>
     </row>
@@ -1824,157 +1824,157 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C61" t="n">
         <v>20000</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn468879435.opengw.net:1374"&gt;vpn468879435.opengw.net:1374&lt;/a&gt;</t>
+          <t>&lt;a href="vpn845381893.opengw.net:1750"&gt;vpn845381893.opengw.net:1750&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Download speed: 6.54 Mbps , Upload speed: 6.67 Mbps</t>
+          <t>Download speed: 3.06 Mbps , Upload speed: 7.98 Mbps</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C62" t="n">
         <v>20000</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn413481711.opengw.net:1497"&gt;vpn413481711.opengw.net:1497&lt;/a&gt;</t>
+          <t>&lt;a href="vpn712374041.opengw.net:1468"&gt;vpn712374041.opengw.net:1468&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Download speed: 2.82 Mbps , Upload speed: 7.55 Mbps</t>
+          <t>Download speed: 1.84 Mbps , Upload speed: 4.56 Mbps</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C63" t="n">
         <v>20000</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn439625823.opengw.net:1742"&gt;vpn439625823.opengw.net:1742&lt;/a&gt;</t>
+          <t>&lt;a href="vpn780908147.opengw.net:1528"&gt;vpn780908147.opengw.net:1528&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Download speed: 1.85 Mbps , Upload speed: 5.20 Mbps</t>
+          <t>Download speed: 3.09 Mbps , Upload speed: 5.07 Mbps</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C64" t="n">
         <v>20000</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn827001986.opengw.net:1314"&gt;vpn827001986.opengw.net:1314&lt;/a&gt;</t>
+          <t>&lt;a href="vpn380548616.opengw.net:995"&gt;vpn380548616.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Download speed: 2.41 Mbps , Upload speed: 7.01 Mbps</t>
+          <t>Download speed: 2.97 Mbps , Upload speed: 3.33 Mbps</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C65" t="n">
         <v>20000</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn918805802.opengw.net:1348"&gt;vpn918805802.opengw.net:1348&lt;/a&gt;</t>
+          <t>&lt;a href="vpn662919681.opengw.net:995"&gt;vpn662919681.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Download speed: 2.22 Mbps , Upload speed: 6.58 Mbps</t>
+          <t>Download speed: 2.80 Mbps , Upload speed: 6.79 Mbps</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C66" t="n">
         <v>20000</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn573538269.opengw.net:1209"&gt;vpn573538269.opengw.net:1209&lt;/a&gt;</t>
+          <t>&lt;a href="vpn461892137.opengw.net:995"&gt;vpn461892137.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Download speed: 2.99 Mbps , Upload speed: 4.21 Mbps</t>
+          <t>Download speed: 2.30 Mbps , Upload speed: 10.05 Mbps</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C67" t="n">
         <v>20000</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn324885013.opengw.net:995"&gt;vpn324885013.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn225472019.opengw.net:1824"&gt;vpn225472019.opengw.net:1824&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Download speed: 3.13 Mbps , Upload speed: 6.60 Mbps</t>
+          <t>Download speed: 3.67 Mbps , Upload speed: 6.79 Mbps</t>
         </is>
       </c>
     </row>
@@ -1985,19 +1985,19 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C68" t="n">
         <v>20000</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn545965201.opengw.net:995"&gt;vpn545965201.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn271804397.opengw.net:995"&gt;vpn271804397.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Download speed: 2.61 Mbps , Upload speed: 5.27 Mbps</t>
+          <t>Download speed: 2.62 Mbps , Upload speed: 4.65 Mbps</t>
         </is>
       </c>
     </row>
@@ -2008,19 +2008,19 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C69" t="n">
         <v>20000</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn636861559.opengw.net:995"&gt;vpn636861559.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn734393325.opengw.net:995"&gt;vpn734393325.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Download speed: 2.41 Mbps , Upload speed: 7.31 Mbps</t>
+          <t>Download speed: 1.73 Mbps , Upload speed: 4.77 Mbps</t>
         </is>
       </c>
     </row>
@@ -2031,249 +2031,88 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C70" t="n">
         <v>20000</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn461892137.opengw.net:995"&gt;vpn461892137.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn601712316.opengw.net:995"&gt;vpn601712316.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Download speed: 2.99 Mbps , Upload speed: 4.15 Mbps</t>
+          <t>Download speed: 3.00 Mbps , Upload speed: 12.74 Mbps</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C71" t="n">
         <v>20000</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn341363698.opengw.net:1892"&gt;vpn341363698.opengw.net:1892&lt;/a&gt;</t>
+          <t>&lt;a href="vpn572178643.opengw.net:995"&gt;vpn572178643.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Download speed: 2.26 Mbps , Upload speed: 3.58 Mbps</t>
+          <t>Download speed: 2.61 Mbps , Upload speed: 7.24 Mbps</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C72" t="n">
         <v>20000</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn799348267.opengw.net:1278"&gt;vpn799348267.opengw.net:1278&lt;/a&gt;</t>
+          <t>&lt;a href="vpn495192093.opengw.net:995"&gt;vpn495192093.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Download speed: 4.94 Mbps , Upload speed: 4.20 Mbps</t>
+          <t>Download speed: 2.54 Mbps , Upload speed: 5.32 Mbps</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C73" t="n">
         <v>20000</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn865760186.opengw.net:1849"&gt;vpn865760186.opengw.net:1849&lt;/a&gt;</t>
+          <t>&lt;a href="vpn147273609.opengw.net:1612"&gt;vpn147273609.opengw.net:1612&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Download speed: 2.84 Mbps , Upload speed: 5.08 Mbps</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>7</v>
-      </c>
-      <c r="C74" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>&lt;a href="vpn727425353.opengw.net:1552"&gt;vpn727425353.opengw.net:1552&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Download speed: 2.16 Mbps , Upload speed: 4.76 Mbps</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Korea Republic of</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>29</v>
-      </c>
-      <c r="C75" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>&lt;a href="vpn784169523.opengw.net:995"&gt;vpn784169523.opengw.net:995&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Download speed: 1.94 Mbps , Upload speed: 6.31 Mbps</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Korea Republic of</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>30</v>
-      </c>
-      <c r="C76" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>&lt;a href="vpn554237937.opengw.net:995"&gt;vpn554237937.opengw.net:995&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Download speed: 2.64 Mbps , Upload speed: 11.11 Mbps</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>5</v>
-      </c>
-      <c r="C77" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>&lt;a href="vpn613193070.opengw.net:1398"&gt;vpn613193070.opengw.net:1398&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Download speed: 2.54 Mbps , Upload speed: 6.78 Mbps</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>13</v>
-      </c>
-      <c r="C78" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>&lt;a href="vpn525742377.opengw.net:1511"&gt;vpn525742377.opengw.net:1511&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Download speed: 3.43 Mbps , Upload speed: 5.23 Mbps</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Korea Republic of</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>31</v>
-      </c>
-      <c r="C79" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>&lt;a href="vpn759838852.opengw.net:995"&gt;vpn759838852.opengw.net:995&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Download speed: 2.62 Mbps , Upload speed: 8.85 Mbps</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>157</v>
-      </c>
-      <c r="C80" t="n">
-        <v>20000</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>&lt;a href="vpn722210664.opengw.net:1787"&gt;vpn722210664.opengw.net:1787&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Download speed: 2.04 Mbps , Upload speed: 4.66 Mbps</t>
+          <t>Download speed: 2.66 Mbps , Upload speed: 8.10 Mbps</t>
         </is>
       </c>
     </row>

--- a/sstp.xlsx
+++ b/sstp.xlsx
@@ -463,230 +463,230 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>124</v>
+        <v>163.58</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn432295087.opengw.net"&gt;vpn432295087.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn718388950.opengw.net:992"&gt;vpn718388950.opengw.net:992&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Download speed: 2.81 Mbps , Upload speed: 8.35 Mbps</t>
+          <t>Download speed: 0.11 Mbps , Upload speed: 0.40 Mbps</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>157</v>
+        <v>319.09</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn431396938.opengw.net"&gt;vpn431396938.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn560791451.opengw.net:1265"&gt;vpn560791451.opengw.net:1265&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Download speed: 2.30 Mbps , Upload speed: 6.53 Mbps</t>
+          <t>Download speed: 0.04 Mbps , Upload speed: 0.65 Mbps</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>164.33</v>
+        <v>20000</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn718388950.opengw.net:992"&gt;vpn718388950.opengw.net:992&lt;/a&gt;</t>
+          <t>&lt;a href="vpn825172115.opengw.net:1676"&gt;vpn825172115.opengw.net:1676&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Download speed: 2.71 Mbps , Upload speed: 8.22 Mbps</t>
+          <t>Download speed: 0.05 Mbps , Upload speed: 0.21 Mbps</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>201.22</v>
+        <v>20000</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn591117518.opengw.net:1239"&gt;vpn591117518.opengw.net:1239&lt;/a&gt;</t>
+          <t>&lt;a href="vpn988633832.opengw.net:995"&gt;vpn988633832.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Download speed: 2.66 Mbps , Upload speed: 4.69 Mbps</t>
+          <t>Download speed: 0.84 Mbps , Upload speed: 2.22 Mbps</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>228.71</v>
+        <v>20000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn738238497.opengw.net:1493"&gt;vpn738238497.opengw.net:1493&lt;/a&gt;</t>
+          <t>&lt;a href="vpn673767462.opengw.net:995"&gt;vpn673767462.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Download speed: 2.89 Mbps , Upload speed: 4.81 Mbps</t>
+          <t>Download speed: 1.53 Mbps , Upload speed: 3.61 Mbps</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>232.46</v>
+        <v>20000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn403703026.opengw.net:1545"&gt;vpn403703026.opengw.net:1545&lt;/a&gt;</t>
+          <t>&lt;a href="vpn851505352.opengw.net:995"&gt;vpn851505352.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Download speed: 4.78 Mbps , Upload speed: 4.16 Mbps</t>
+          <t>Download speed: 1.86 Mbps , Upload speed: 3.91 Mbps</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>237.34</v>
+        <v>20000</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn879466818.opengw.net:1962"&gt;vpn879466818.opengw.net:1962&lt;/a&gt;</t>
+          <t>&lt;a href="vpn600557931.opengw.net:1208"&gt;vpn600557931.opengw.net:1208&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Download speed: 3.08 Mbps , Upload speed: 5.90 Mbps</t>
+          <t>Download speed: 1.01 Mbps , Upload speed: 2.74 Mbps</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>301.21</v>
+        <v>20000</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn125101970.opengw.net:1377"&gt;vpn125101970.opengw.net:1377&lt;/a&gt;</t>
+          <t>&lt;a href="vpn351985319.opengw.net:1517"&gt;vpn351985319.opengw.net:1517&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Download speed: 4.03 Mbps , Upload speed: 7.16 Mbps</t>
+          <t>Download speed: 2.76 Mbps , Upload speed: 4.00 Mbps</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C10" t="n">
-        <v>319.34</v>
+        <v>20000</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&lt;a href="public-vpn-189.opengw.net"&gt;public-vpn-189.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn324022834.opengw.net:1402"&gt;vpn324022834.opengw.net:1402&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Download speed: 2.89 Mbps , Upload speed: 5.09 Mbps</t>
+          <t>Download speed: 1.38 Mbps , Upload speed: 2.92 Mbps</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>319.58</v>
+        <v>20000</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>&lt;a href="public-vpn-88.opengw.net"&gt;public-vpn-88.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn669820834.opengw.net:1520"&gt;vpn669820834.opengw.net:1520&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Download speed: 2.88 Mbps , Upload speed: 3.55 Mbps</t>
+          <t>Download speed: 2.38 Mbps , Upload speed: 2.21 Mbps</t>
         </is>
       </c>
     </row>
@@ -697,65 +697,65 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>328.31</v>
+        <v>20000</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn966868128.opengw.net:1956"&gt;vpn966868128.opengw.net:1956&lt;/a&gt;</t>
+          <t>&lt;a href="vpn225512697.opengw.net:995"&gt;vpn225512697.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Download speed: 2.15 Mbps , Upload speed: 4.20 Mbps</t>
+          <t>Download speed: 1.84 Mbps , Upload speed: 2.51 Mbps</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>329</v>
+        <v>20000</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn504215950.opengw.net:1536"&gt;vpn504215950.opengw.net:1536&lt;/a&gt;</t>
+          <t>&lt;a href="vpn169530017.opengw.net:995"&gt;vpn169530017.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Download speed: 2.05 Mbps , Upload speed: 6.60 Mbps</t>
+          <t>Download speed: 2.20 Mbps , Upload speed: 4.88 Mbps</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>330.38</v>
+        <v>20000</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>&lt;a href="public-vpn-137.opengw.net"&gt;public-vpn-137.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn350691097.opengw.net:1873"&gt;vpn350691097.opengw.net:1873&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Download speed: 3.39 Mbps , Upload speed: 4.09 Mbps</t>
+          <t>Download speed: 2.05 Mbps , Upload speed: 3.14 Mbps</t>
         </is>
       </c>
     </row>
@@ -766,42 +766,42 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>333.57</v>
+        <v>20000</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn839157538.opengw.net:1482"&gt;vpn839157538.opengw.net:1482&lt;/a&gt;</t>
+          <t>&lt;a href="vpn101228790.opengw.net:1545"&gt;vpn101228790.opengw.net:1545&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Download speed: 4.76 Mbps , Upload speed: 2.77 Mbps</t>
+          <t>Download speed: 1.55 Mbps , Upload speed: 4.53 Mbps</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>343.47</v>
+        <v>20000</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn252262778.opengw.net:1553"&gt;vpn252262778.opengw.net:1553&lt;/a&gt;</t>
+          <t>&lt;a href="vpn530419314.opengw.net:1543"&gt;vpn530419314.opengw.net:1543&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Download speed: 4.44 Mbps , Upload speed: 7.92 Mbps</t>
+          <t>Download speed: 2.79 Mbps , Upload speed: 1.67 Mbps</t>
         </is>
       </c>
     </row>
@@ -812,19 +812,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>345.51</v>
+        <v>20000</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn713719942.opengw.net:1502"&gt;vpn713719942.opengw.net:1502&lt;/a&gt;</t>
+          <t>&lt;a href="vpn179583229.opengw.net:995"&gt;vpn179583229.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Download speed: 2.73 Mbps , Upload speed: 2.80 Mbps</t>
+          <t>Download speed: 2.14 Mbps , Upload speed: 3.19 Mbps</t>
         </is>
       </c>
     </row>
@@ -835,111 +835,111 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>345.61</v>
+        <v>20000</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn487977480.opengw.net:1708"&gt;vpn487977480.opengw.net:1708&lt;/a&gt;</t>
+          <t>&lt;a href="vpn491832000.opengw.net:995"&gt;vpn491832000.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Download speed: 5.28 Mbps , Upload speed: 9.58 Mbps</t>
+          <t>Download speed: 1.80 Mbps , Upload speed: 3.16 Mbps</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>346.47</v>
+        <v>20000</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn447833455.opengw.net:1478"&gt;vpn447833455.opengw.net:1478&lt;/a&gt;</t>
+          <t>&lt;a href="vpn873623036.opengw.net:995"&gt;vpn873623036.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Download speed: 4.10 Mbps , Upload speed: 4.07 Mbps</t>
+          <t>Download speed: 2.52 Mbps , Upload speed: 4.28 Mbps</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
-        <v>348.36</v>
+        <v>20000</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn375107451.opengw.net:1799"&gt;vpn375107451.opengw.net:1799&lt;/a&gt;</t>
+          <t>&lt;a href="vpn281332084.opengw.net:1964"&gt;vpn281332084.opengw.net:1964&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Download speed: 2.05 Mbps , Upload speed: 5.55 Mbps</t>
+          <t>Download speed: 2.17 Mbps , Upload speed: 3.83 Mbps</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Viet Nam</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C21" t="n">
-        <v>348.64</v>
+        <v>20000</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn235611065.opengw.net:1473"&gt;vpn235611065.opengw.net:1473&lt;/a&gt;</t>
+          <t>&lt;a href="vpn937513508.opengw.net:1312"&gt;vpn937513508.opengw.net:1312&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Download speed: 3.87 Mbps , Upload speed: 4.27 Mbps</t>
+          <t>Download speed: 2.49 Mbps , Upload speed: 3.95 Mbps</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C22" t="n">
-        <v>350.34</v>
+        <v>20000</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn291667441.opengw.net:1206"&gt;vpn291667441.opengw.net:1206&lt;/a&gt;</t>
+          <t>&lt;a href="vpn911637066.opengw.net:1832"&gt;vpn911637066.opengw.net:1832&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Download speed: 3.91 Mbps , Upload speed: 5.65 Mbps</t>
+          <t>Download speed: 1.82 Mbps , Upload speed: 4.04 Mbps</t>
         </is>
       </c>
     </row>
@@ -950,65 +950,65 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C23" t="n">
-        <v>351.65</v>
+        <v>20000</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn232960273.opengw.net:1846"&gt;vpn232960273.opengw.net:1846&lt;/a&gt;</t>
+          <t>&lt;a href="vpn756164752.opengw.net:1664"&gt;vpn756164752.opengw.net:1664&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Download speed: 2.20 Mbps , Upload speed: 2.20 Mbps</t>
+          <t>Download speed: 1.51 Mbps , Upload speed: 3.15 Mbps</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C24" t="n">
-        <v>352.5</v>
+        <v>20000</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn174240024.opengw.net:1325"&gt;vpn174240024.opengw.net:1325&lt;/a&gt;</t>
+          <t>&lt;a href="vpn747206214.opengw.net:995"&gt;vpn747206214.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Download speed: 4.15 Mbps , Upload speed: 5.56 Mbps</t>
+          <t>Download speed: 2.34 Mbps , Upload speed: 3.99 Mbps</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C25" t="n">
-        <v>353.35</v>
+        <v>20000</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn835006700.opengw.net:1387"&gt;vpn835006700.opengw.net:1387&lt;/a&gt;</t>
+          <t>&lt;a href="vpn108012541.opengw.net"&gt;vpn108012541.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Download speed: 1.82 Mbps , Upload speed: 3.71 Mbps</t>
+          <t>Download speed: 4.54 Mbps , Upload speed: 3.41 Mbps</t>
         </is>
       </c>
     </row>
@@ -1019,19 +1019,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" t="n">
-        <v>353.56</v>
+        <v>20000</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn598084563.opengw.net:1866"&gt;vpn598084563.opengw.net:1866&lt;/a&gt;</t>
+          <t>&lt;a href="vpn676594305.opengw.net:1418"&gt;vpn676594305.opengw.net:1418&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Download speed: 4.14 Mbps , Upload speed: 7.83 Mbps</t>
+          <t>Download speed: 2.77 Mbps , Upload speed: 3.56 Mbps</t>
         </is>
       </c>
     </row>
@@ -1042,19 +1042,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C27" t="n">
-        <v>354.36</v>
+        <v>20000</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn240061180.opengw.net:1285"&gt;vpn240061180.opengw.net:1285&lt;/a&gt;</t>
+          <t>&lt;a href="vpn927590553.opengw.net:995"&gt;vpn927590553.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Download speed: 2.45 Mbps , Upload speed: 4.50 Mbps</t>
+          <t>Download speed: 2.88 Mbps , Upload speed: 4.96 Mbps</t>
         </is>
       </c>
     </row>
@@ -1065,19 +1065,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" t="n">
-        <v>356.49</v>
+        <v>20000</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn903049911.opengw.net:1389"&gt;vpn903049911.opengw.net:1389&lt;/a&gt;</t>
+          <t>&lt;a href="vpn275000167.opengw.net:1202"&gt;vpn275000167.opengw.net:1202&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Download speed: 2.79 Mbps , Upload speed: 12.29 Mbps</t>
+          <t>Download speed: 2.18 Mbps , Upload speed: 2.40 Mbps</t>
         </is>
       </c>
     </row>
@@ -1088,19 +1088,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C29" t="n">
-        <v>356.89</v>
+        <v>20000</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn640828866.opengw.net:1407"&gt;vpn640828866.opengw.net:1407&lt;/a&gt;</t>
+          <t>&lt;a href="vpn626132705.opengw.net:1696"&gt;vpn626132705.opengw.net:1696&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Download speed: 3.16 Mbps , Upload speed: 9.79 Mbps</t>
+          <t>Download speed: 3.74 Mbps , Upload speed: 2.66 Mbps</t>
         </is>
       </c>
     </row>
@@ -1111,19 +1111,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C30" t="n">
-        <v>358.08</v>
+        <v>20000</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn647586677.opengw.net:1211"&gt;vpn647586677.opengw.net:1211&lt;/a&gt;</t>
+          <t>&lt;a href="vpn183661182.opengw.net:995"&gt;vpn183661182.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Download speed: 2.75 Mbps , Upload speed: 7.40 Mbps</t>
+          <t>Download speed: 1.64 Mbps , Upload speed: 3.17 Mbps</t>
         </is>
       </c>
     </row>
@@ -1134,19 +1134,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C31" t="n">
-        <v>358.11</v>
+        <v>20000</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn285980626.opengw.net:995"&gt;vpn285980626.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn446158116.opengw.net:1376"&gt;vpn446158116.opengw.net:1376&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Download speed: 3.59 Mbps , Upload speed: 9.75 Mbps</t>
+          <t>Download speed: 2.33 Mbps , Upload speed: 4.56 Mbps</t>
         </is>
       </c>
     </row>
@@ -1157,19 +1157,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C32" t="n">
-        <v>358.33</v>
+        <v>20000</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn463598151.opengw.net:1255"&gt;vpn463598151.opengw.net:1255&lt;/a&gt;</t>
+          <t>&lt;a href="vpn320444679.opengw.net:1494"&gt;vpn320444679.opengw.net:1494&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Download speed: 2.83 Mbps , Upload speed: 5.68 Mbps</t>
+          <t>Download speed: 3.68 Mbps , Upload speed: 6.37 Mbps</t>
         </is>
       </c>
     </row>
@@ -1183,16 +1183,16 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>361.27</v>
+        <v>20000</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn107334606.opengw.net:1744"&gt;vpn107334606.opengw.net:1744&lt;/a&gt;</t>
+          <t>&lt;a href="vpn887190747.opengw.net:1766"&gt;vpn887190747.opengw.net:1766&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Download speed: 7.14 Mbps , Upload speed: 4.44 Mbps</t>
+          <t>Download speed: 3.42 Mbps , Upload speed: 3.78 Mbps</t>
         </is>
       </c>
     </row>
@@ -1203,19 +1203,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C34" t="n">
-        <v>363.34</v>
+        <v>20000</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn103423804.opengw.net:1773"&gt;vpn103423804.opengw.net:1773&lt;/a&gt;</t>
+          <t>&lt;a href="vpn338927695.opengw.net:1698"&gt;vpn338927695.opengw.net:1698&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Download speed: 2.94 Mbps , Upload speed: 4.60 Mbps</t>
+          <t>Download speed: 2.21 Mbps , Upload speed: 1.79 Mbps</t>
         </is>
       </c>
     </row>
@@ -1226,19 +1226,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C35" t="n">
-        <v>365.24</v>
+        <v>20000</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn539454192.opengw.net:1779"&gt;vpn539454192.opengw.net:1779&lt;/a&gt;</t>
+          <t>&lt;a href="vpn663956788.opengw.net:1425"&gt;vpn663956788.opengw.net:1425&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Download speed: 3.81 Mbps , Upload speed: 3.80 Mbps</t>
+          <t>Download speed: 3.02 Mbps , Upload speed: 3.23 Mbps</t>
         </is>
       </c>
     </row>
@@ -1249,19 +1249,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>367.22</v>
+        <v>20000</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn227223638.opengw.net:1871"&gt;vpn227223638.opengw.net:1871&lt;/a&gt;</t>
+          <t>&lt;a href="vpn846040946.opengw.net:1370"&gt;vpn846040946.opengw.net:1370&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Download speed: 7.07 Mbps , Upload speed: 6.92 Mbps</t>
+          <t>Download speed: 1.76 Mbps , Upload speed: 3.61 Mbps</t>
         </is>
       </c>
     </row>
@@ -1272,42 +1272,42 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C37" t="n">
-        <v>379.15</v>
+        <v>20000</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn134798690.opengw.net:1758"&gt;vpn134798690.opengw.net:1758&lt;/a&gt;</t>
+          <t>&lt;a href="vpn671622989.opengw.net:995"&gt;vpn671622989.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Download speed: 2.48 Mbps , Upload speed: 6.38 Mbps</t>
+          <t>Download speed: 1.98 Mbps , Upload speed: 3.52 Mbps</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C38" t="n">
-        <v>403.18</v>
+        <v>20000</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn465807589.opengw.net:1449"&gt;vpn465807589.opengw.net:1449&lt;/a&gt;</t>
+          <t>&lt;a href="vpn975880760.opengw.net:995"&gt;vpn975880760.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Download speed: 7.09 Mbps , Upload speed: 6.78 Mbps</t>
+          <t>Download speed: 2.79 Mbps , Upload speed: 2.84 Mbps</t>
         </is>
       </c>
     </row>
@@ -1318,180 +1318,180 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C39" t="n">
-        <v>438.62</v>
+        <v>20000</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn156412051.opengw.net:1752"&gt;vpn156412051.opengw.net:1752&lt;/a&gt;</t>
+          <t>&lt;a href="vpn502466785.opengw.net:995"&gt;vpn502466785.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Download speed: 2.23 Mbps , Upload speed: 7.82 Mbps</t>
+          <t>Download speed: 2.35 Mbps , Upload speed: 2.07 Mbps</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C40" t="n">
         <v>20000</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn368782254.opengw.net:995"&gt;vpn368782254.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn966104001.opengw.net:1241"&gt;vpn966104001.opengw.net:1241&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Download speed: 2.95 Mbps , Upload speed: 7.58 Mbps</t>
+          <t>Download speed: 2.50 Mbps , Upload speed: 3.12 Mbps</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C41" t="n">
         <v>20000</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn389909228.opengw.net:995"&gt;vpn389909228.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="public-vpn-137.opengw.net"&gt;public-vpn-137.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Download speed: 2.88 Mbps , Upload speed: 8.76 Mbps</t>
+          <t>Download speed: 1.43 Mbps , Upload speed: 2.03 Mbps</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
         <v>20000</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn846611798.opengw.net:995"&gt;vpn846611798.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn980142870.opengw.net:1412"&gt;vpn980142870.opengw.net:1412&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Download speed: 5.81 Mbps , Upload speed: 5.34 Mbps</t>
+          <t>Download speed: 2.05 Mbps , Upload speed: 2.17 Mbps</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C43" t="n">
         <v>20000</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn739896725.opengw.net:995"&gt;vpn739896725.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn710969257.opengw.net:1885"&gt;vpn710969257.opengw.net:1885&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Download speed: 2.16 Mbps , Upload speed: 6.87 Mbps</t>
+          <t>Download speed: 1.89 Mbps , Upload speed: 3.71 Mbps</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C44" t="n">
         <v>20000</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn794819511.opengw.net:995"&gt;vpn794819511.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn289917189.opengw.net:1410"&gt;vpn289917189.opengw.net:1410&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Download speed: 2.64 Mbps , Upload speed: 5.10 Mbps</t>
+          <t>Download speed: 1.18 Mbps , Upload speed: 3.44 Mbps</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C45" t="n">
         <v>20000</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn919107224.opengw.net:995"&gt;vpn919107224.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn856118002.opengw.net:1385"&gt;vpn856118002.opengw.net:1385&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Download speed: 2.07 Mbps , Upload speed: 6.05 Mbps</t>
+          <t>Download speed: 0.71 Mbps , Upload speed: 3.24 Mbps</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C46" t="n">
         <v>20000</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn234107942.opengw.net:995"&gt;vpn234107942.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn555810489.opengw.net:1633"&gt;vpn555810489.opengw.net:1633&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Download speed: 2.41 Mbps , Upload speed: 10.33 Mbps</t>
+          <t>Download speed: 1.28 Mbps , Upload speed: 1.97 Mbps</t>
         </is>
       </c>
     </row>
@@ -1502,42 +1502,42 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C47" t="n">
         <v>20000</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn739570983.opengw.net:1271"&gt;vpn739570983.opengw.net:1271&lt;/a&gt;</t>
+          <t>&lt;a href="vpn225421256.opengw.net:1880"&gt;vpn225421256.opengw.net:1880&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Download speed: 2.57 Mbps , Upload speed: 8.76 Mbps</t>
+          <t>Download speed: 3.10 Mbps , Upload speed: 4.85 Mbps</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C48" t="n">
         <v>20000</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn806019911.opengw.net:995"&gt;vpn806019911.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn678331002.opengw.net:1862"&gt;vpn678331002.opengw.net:1862&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Download speed: 2.74 Mbps , Upload speed: 8.09 Mbps</t>
+          <t>Download speed: 1.91 Mbps , Upload speed: 2.57 Mbps</t>
         </is>
       </c>
     </row>
@@ -1555,12 +1555,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn755076786.opengw.net:1336"&gt;vpn755076786.opengw.net:1336&lt;/a&gt;</t>
+          <t>&lt;a href="vpn567662231.opengw.net:1367"&gt;vpn567662231.opengw.net:1367&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Download speed: 1.75 Mbps , Upload speed: 6.17 Mbps</t>
+          <t>Download speed: 1.96 Mbps , Upload speed: 3.05 Mbps</t>
         </is>
       </c>
     </row>
@@ -1571,19 +1571,19 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
         <v>20000</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn536044436.opengw.net:1949"&gt;vpn536044436.opengw.net:1949&lt;/a&gt;</t>
+          <t>&lt;a href="vpn680583464.opengw.net:1958"&gt;vpn680583464.opengw.net:1958&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Download speed: 5.06 Mbps , Upload speed: 5.10 Mbps</t>
+          <t>Download speed: 1.58 Mbps , Upload speed: 2.66 Mbps</t>
         </is>
       </c>
     </row>
@@ -1594,19 +1594,19 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
         <v>20000</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn189868531.opengw.net:1899"&gt;vpn189868531.opengw.net:1899&lt;/a&gt;</t>
+          <t>&lt;a href="vpn435394266.opengw.net:1495"&gt;vpn435394266.opengw.net:1495&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Download speed: 2.16 Mbps , Upload speed: 9.16 Mbps</t>
+          <t>Download speed: 2.59 Mbps , Upload speed: 2.58 Mbps</t>
         </is>
       </c>
     </row>
@@ -1617,19 +1617,19 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C52" t="n">
         <v>20000</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn698996866.opengw.net:1774"&gt;vpn698996866.opengw.net:1774&lt;/a&gt;</t>
+          <t>&lt;a href="vpn463722158.opengw.net:1371"&gt;vpn463722158.opengw.net:1371&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Download speed: 4.13 Mbps , Upload speed: 8.07 Mbps</t>
+          <t>Download speed: 1.21 Mbps , Upload speed: 2.19 Mbps</t>
         </is>
       </c>
     </row>
@@ -1640,65 +1640,65 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
         <v>20000</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn490668106.opengw.net:1397"&gt;vpn490668106.opengw.net:1397&lt;/a&gt;</t>
+          <t>&lt;a href="vpn940496795.opengw.net:1242"&gt;vpn940496795.opengw.net:1242&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Download speed: 2.41 Mbps , Upload speed: 7.59 Mbps</t>
+          <t>Download speed: 1.56 Mbps , Upload speed: 3.21 Mbps</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C54" t="n">
         <v>20000</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn425236269.opengw.net:1701"&gt;vpn425236269.opengw.net:1701&lt;/a&gt;</t>
+          <t>&lt;a href="vpn431396938.opengw.net"&gt;vpn431396938.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Download speed: 4.12 Mbps , Upload speed: 8.92 Mbps</t>
+          <t>Download speed: 2.51 Mbps , Upload speed: 2.12 Mbps</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>8</v>
+        <v>149</v>
       </c>
       <c r="C55" t="n">
         <v>20000</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn598665898.opengw.net:1492"&gt;vpn598665898.opengw.net:1492&lt;/a&gt;</t>
+          <t>&lt;a href="vpn445900976.opengw.net:1326"&gt;vpn445900976.opengw.net:1326&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Download speed: 3.71 Mbps , Upload speed: 9.26 Mbps</t>
+          <t>Download speed: 0.55 Mbps , Upload speed: 3.01 Mbps</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn991950200.opengw.net:1464"&gt;vpn991950200.opengw.net:1464&lt;/a&gt;</t>
+          <t>&lt;a href="public-vpn-189.opengw.net"&gt;public-vpn-189.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Download speed: 3.10 Mbps , Upload speed: 3.85 Mbps</t>
+          <t>Download speed: 2.03 Mbps , Upload speed: 3.66 Mbps</t>
         </is>
       </c>
     </row>
@@ -1732,180 +1732,180 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C57" t="n">
         <v>20000</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn525742377.opengw.net:1511"&gt;vpn525742377.opengw.net:1511&lt;/a&gt;</t>
+          <t>&lt;a href="vpn20230415.opengw.net"&gt;vpn20230415.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Download speed: 1.56 Mbps , Upload speed: 8.06 Mbps</t>
+          <t>Download speed: 1.83 Mbps , Upload speed: 2.38 Mbps</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C58" t="n">
         <v>20000</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn595699885.opengw.net:1962"&gt;vpn595699885.opengw.net:1962&lt;/a&gt;</t>
+          <t>&lt;a href="vpn542234737.opengw.net:1452"&gt;vpn542234737.opengw.net:1452&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Download speed: 4.26 Mbps , Upload speed: 7.64 Mbps</t>
+          <t>Download speed: 2.58 Mbps , Upload speed: 3.98 Mbps</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C59" t="n">
         <v>20000</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn405367579.opengw.net:1976"&gt;vpn405367579.opengw.net:1976&lt;/a&gt;</t>
+          <t>&lt;a href="vpn195710331.opengw.net:1531"&gt;vpn195710331.opengw.net:1531&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Download speed: 2.18 Mbps , Upload speed: 9.69 Mbps</t>
+          <t>Download speed: 1.53 Mbps , Upload speed: 0.57 Mbps</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Viet Nam</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C60" t="n">
         <v>20000</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>&lt;a href="maychu88.opengw.net:992"&gt;maychu88.opengw.net:992&lt;/a&gt;</t>
+          <t>&lt;a href="vpn609498386.opengw.net:1892"&gt;vpn609498386.opengw.net:1892&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Download speed: 3.38 Mbps , Upload speed: 5.82 Mbps</t>
+          <t>Download speed: 1.05 Mbps , Upload speed: 2.78 Mbps</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C61" t="n">
         <v>20000</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn845381893.opengw.net:1750"&gt;vpn845381893.opengw.net:1750&lt;/a&gt;</t>
+          <t>&lt;a href="vpn578398512.opengw.net:1730"&gt;vpn578398512.opengw.net:1730&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Download speed: 3.06 Mbps , Upload speed: 7.98 Mbps</t>
+          <t>Download speed: 1.40 Mbps , Upload speed: 2.72 Mbps</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C62" t="n">
         <v>20000</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn712374041.opengw.net:1468"&gt;vpn712374041.opengw.net:1468&lt;/a&gt;</t>
+          <t>&lt;a href="vpn441942832.opengw.net:1331"&gt;vpn441942832.opengw.net:1331&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Download speed: 1.84 Mbps , Upload speed: 4.56 Mbps</t>
+          <t>Download speed: 2.00 Mbps , Upload speed: 2.99 Mbps</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C63" t="n">
         <v>20000</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn780908147.opengw.net:1528"&gt;vpn780908147.opengw.net:1528&lt;/a&gt;</t>
+          <t>&lt;a href="vpn606729171.opengw.net:1887"&gt;vpn606729171.opengw.net:1887&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Download speed: 3.09 Mbps , Upload speed: 5.07 Mbps</t>
+          <t>Download speed: 2.25 Mbps , Upload speed: 3.75 Mbps</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C64" t="n">
         <v>20000</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn380548616.opengw.net:995"&gt;vpn380548616.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn176757344.opengw.net:1775"&gt;vpn176757344.opengw.net:1775&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Download speed: 2.97 Mbps , Upload speed: 3.33 Mbps</t>
+          <t>Download speed: 3.30 Mbps , Upload speed: 1.60 Mbps</t>
         </is>
       </c>
     </row>
@@ -1916,157 +1916,157 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C65" t="n">
         <v>20000</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn662919681.opengw.net:995"&gt;vpn662919681.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn415795767.opengw.net:1825"&gt;vpn415795767.opengw.net:1825&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Download speed: 2.80 Mbps , Upload speed: 6.79 Mbps</t>
+          <t>Download speed: 2.30 Mbps , Upload speed: 3.95 Mbps</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C66" t="n">
         <v>20000</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn461892137.opengw.net:995"&gt;vpn461892137.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn331276652.opengw.net:995"&gt;vpn331276652.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Download speed: 2.30 Mbps , Upload speed: 10.05 Mbps</t>
+          <t>Download speed: 2.04 Mbps , Upload speed: 2.95 Mbps</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C67" t="n">
         <v>20000</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn225472019.opengw.net:1824"&gt;vpn225472019.opengw.net:1824&lt;/a&gt;</t>
+          <t>&lt;a href="vpn176792365.opengw.net:1648"&gt;vpn176792365.opengw.net:1648&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Download speed: 3.67 Mbps , Upload speed: 6.79 Mbps</t>
+          <t>Download speed: 2.21 Mbps , Upload speed: 3.84 Mbps</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C68" t="n">
         <v>20000</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn271804397.opengw.net:995"&gt;vpn271804397.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn110154966.opengw.net:1648"&gt;vpn110154966.opengw.net:1648&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Download speed: 2.62 Mbps , Upload speed: 4.65 Mbps</t>
+          <t>Download speed: 2.09 Mbps , Upload speed: 4.41 Mbps</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C69" t="n">
         <v>20000</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn734393325.opengw.net:995"&gt;vpn734393325.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn103818727.opengw.net:1629"&gt;vpn103818727.opengw.net:1629&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Download speed: 1.73 Mbps , Upload speed: 4.77 Mbps</t>
+          <t>Download speed: 2.57 Mbps , Upload speed: 4.46 Mbps</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C70" t="n">
         <v>20000</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn601712316.opengw.net:995"&gt;vpn601712316.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="public-vpn-88.opengw.net"&gt;public-vpn-88.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Download speed: 3.00 Mbps , Upload speed: 12.74 Mbps</t>
+          <t>Download speed: 6.15 Mbps , Upload speed: 3.28 Mbps</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C71" t="n">
         <v>20000</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn572178643.opengw.net:995"&gt;vpn572178643.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn455519155.opengw.net:1474"&gt;vpn455519155.opengw.net:1474&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Download speed: 2.61 Mbps , Upload speed: 7.24 Mbps</t>
+          <t>Download speed: 3.86 Mbps , Upload speed: 5.67 Mbps</t>
         </is>
       </c>
     </row>
@@ -2077,42 +2077,42 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C72" t="n">
         <v>20000</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn495192093.opengw.net:995"&gt;vpn495192093.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn209265073.opengw.net:995"&gt;vpn209265073.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Download speed: 2.54 Mbps , Upload speed: 5.32 Mbps</t>
+          <t>Download speed: 2.22 Mbps , Upload speed: 2.96 Mbps</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Viet Nam</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="C73" t="n">
         <v>20000</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn147273609.opengw.net:1612"&gt;vpn147273609.opengw.net:1612&lt;/a&gt;</t>
+          <t>&lt;a href="vpn432295087.opengw.net"&gt;vpn432295087.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Download speed: 2.66 Mbps , Upload speed: 8.10 Mbps</t>
+          <t>Download speed: 1.70 Mbps , Upload speed: 3.53 Mbps</t>
         </is>
       </c>
     </row>

--- a/sstp.xlsx
+++ b/sstp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,249 +467,249 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>163.58</v>
+        <v>159.27</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn718388950.opengw.net:992"&gt;vpn718388950.opengw.net:992&lt;/a&gt;</t>
+          <t>&lt;a href="vpn719329406.opengw.net"&gt;vpn719329406.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Download speed: 0.11 Mbps , Upload speed: 0.40 Mbps</t>
+          <t>Download speed: 1.56 Mbps , Upload speed: 5.62 Mbps</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>319.09</v>
+        <v>167.01</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn560791451.opengw.net:1265"&gt;vpn560791451.opengw.net:1265&lt;/a&gt;</t>
+          <t>&lt;a href="vpn431396938.opengw.net"&gt;vpn431396938.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Download speed: 0.04 Mbps , Upload speed: 0.65 Mbps</t>
+          <t>Download speed: 1.25 Mbps , Upload speed: 3.76 Mbps</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="C4" t="n">
-        <v>20000</v>
+        <v>169.71</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn825172115.opengw.net:1676"&gt;vpn825172115.opengw.net:1676&lt;/a&gt;</t>
+          <t>&lt;a href="vpn432295087.opengw.net"&gt;vpn432295087.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Download speed: 0.05 Mbps , Upload speed: 0.21 Mbps</t>
+          <t>Download speed: 1.96 Mbps , Upload speed: 6.17 Mbps</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>20000</v>
+        <v>237.18</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn988633832.opengw.net:995"&gt;vpn988633832.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn233826832.opengw.net:1456"&gt;vpn233826832.opengw.net:1456&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Download speed: 0.84 Mbps , Upload speed: 2.22 Mbps</t>
+          <t>Download speed: 1.58 Mbps , Upload speed: 5.26 Mbps</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C6" t="n">
-        <v>20000</v>
+        <v>237.69</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn673767462.opengw.net:995"&gt;vpn673767462.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn957274764.opengw.net:1384"&gt;vpn957274764.opengw.net:1384&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Download speed: 1.53 Mbps , Upload speed: 3.61 Mbps</t>
+          <t>Download speed: 5.35 Mbps , Upload speed: 5.35 Mbps</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>20000</v>
+        <v>333</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn851505352.opengw.net:995"&gt;vpn851505352.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn894594992.opengw.net:1466"&gt;vpn894594992.opengw.net:1466&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Download speed: 1.86 Mbps , Upload speed: 3.91 Mbps</t>
+          <t>Download speed: 1.40 Mbps , Upload speed: 5.12 Mbps</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>20000</v>
+        <v>336.65</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn600557931.opengw.net:1208"&gt;vpn600557931.opengw.net:1208&lt;/a&gt;</t>
+          <t>&lt;a href="public-vpn-189.opengw.net"&gt;public-vpn-189.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Download speed: 1.01 Mbps , Upload speed: 2.74 Mbps</t>
+          <t>Download speed: 2.32 Mbps , Upload speed: 3.26 Mbps</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>20000</v>
+        <v>338.32</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn351985319.opengw.net:1517"&gt;vpn351985319.opengw.net:1517&lt;/a&gt;</t>
+          <t>&lt;a href="public-vpn-170.opengw.net"&gt;public-vpn-170.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Download speed: 2.76 Mbps , Upload speed: 4.00 Mbps</t>
+          <t>Download speed: 1.90 Mbps , Upload speed: 2.72 Mbps</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>20000</v>
+        <v>338.73</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn324022834.opengw.net:1402"&gt;vpn324022834.opengw.net:1402&lt;/a&gt;</t>
+          <t>&lt;a href="public-vpn-88.opengw.net"&gt;public-vpn-88.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Download speed: 1.38 Mbps , Upload speed: 2.92 Mbps</t>
+          <t>Download speed: 2.03 Mbps , Upload speed: 1.75 Mbps</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>20000</v>
+        <v>338.75</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn669820834.opengw.net:1520"&gt;vpn669820834.opengw.net:1520&lt;/a&gt;</t>
+          <t>&lt;a href="vpn496678424.opengw.net:1307"&gt;vpn496678424.opengw.net:1307&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Download speed: 2.38 Mbps , Upload speed: 2.21 Mbps</t>
+          <t>Download speed: 2.99 Mbps , Upload speed: 3.53 Mbps</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>20000</v>
+        <v>346.31</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn225512697.opengw.net:995"&gt;vpn225512697.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn595454165.opengw.net:1341"&gt;vpn595454165.opengw.net:1341&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Download speed: 1.84 Mbps , Upload speed: 2.51 Mbps</t>
+          <t>Download speed: 1.33 Mbps , Upload speed: 6.27 Mbps</t>
         </is>
       </c>
     </row>
@@ -720,19 +720,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>20000</v>
+        <v>360.14</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn169530017.opengw.net:995"&gt;vpn169530017.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn702945153.opengw.net:1463"&gt;vpn702945153.opengw.net:1463&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Download speed: 2.20 Mbps , Upload speed: 4.88 Mbps</t>
+          <t>Download speed: 1.56 Mbps , Upload speed: 2.88 Mbps</t>
         </is>
       </c>
     </row>
@@ -743,19 +743,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>20000</v>
+        <v>364.36</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn350691097.opengw.net:1873"&gt;vpn350691097.opengw.net:1873&lt;/a&gt;</t>
+          <t>&lt;a href="vpn754249588.opengw.net:1319"&gt;vpn754249588.opengw.net:1319&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Download speed: 2.05 Mbps , Upload speed: 3.14 Mbps</t>
+          <t>Download speed: 1.80 Mbps , Upload speed: 5.90 Mbps</t>
         </is>
       </c>
     </row>
@@ -766,19 +766,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>20000</v>
+        <v>371.89</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn101228790.opengw.net:1545"&gt;vpn101228790.opengw.net:1545&lt;/a&gt;</t>
+          <t>&lt;a href="vpn695659418.opengw.net:995"&gt;vpn695659418.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Download speed: 1.55 Mbps , Upload speed: 4.53 Mbps</t>
+          <t>Download speed: 1.74 Mbps , Upload speed: 5.20 Mbps</t>
         </is>
       </c>
     </row>
@@ -789,19 +789,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>20000</v>
+        <v>372.87</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn530419314.opengw.net:1543"&gt;vpn530419314.opengw.net:1543&lt;/a&gt;</t>
+          <t>&lt;a href="vpn884548829.opengw.net:995"&gt;vpn884548829.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Download speed: 2.79 Mbps , Upload speed: 1.67 Mbps</t>
+          <t>Download speed: 2.17 Mbps , Upload speed: 3.78 Mbps</t>
         </is>
       </c>
     </row>
@@ -812,19 +812,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>20000</v>
+        <v>373.37</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn179583229.opengw.net:995"&gt;vpn179583229.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn357942633.opengw.net:1672"&gt;vpn357942633.opengw.net:1672&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Download speed: 2.14 Mbps , Upload speed: 3.19 Mbps</t>
+          <t>Download speed: 1.44 Mbps , Upload speed: 1.97 Mbps</t>
         </is>
       </c>
     </row>
@@ -835,19 +835,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>20000</v>
+        <v>374.51</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn491832000.opengw.net:995"&gt;vpn491832000.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn599388525.opengw.net:1860"&gt;vpn599388525.opengw.net:1860&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Download speed: 1.80 Mbps , Upload speed: 3.16 Mbps</t>
+          <t>Download speed: 2.61 Mbps , Upload speed: 3.27 Mbps</t>
         </is>
       </c>
     </row>
@@ -858,19 +858,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C19" t="n">
-        <v>20000</v>
+        <v>376.55</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn873623036.opengw.net:995"&gt;vpn873623036.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn774213741.opengw.net:1460"&gt;vpn774213741.opengw.net:1460&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Download speed: 2.52 Mbps , Upload speed: 4.28 Mbps</t>
+          <t>Download speed: 2.73 Mbps , Upload speed: 3.78 Mbps</t>
         </is>
       </c>
     </row>
@@ -881,65 +881,65 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>20000</v>
+        <v>379.01</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn281332084.opengw.net:1964"&gt;vpn281332084.opengw.net:1964&lt;/a&gt;</t>
+          <t>&lt;a href="vpn617009188.opengw.net:1762"&gt;vpn617009188.opengw.net:1762&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Download speed: 2.17 Mbps , Upload speed: 3.83 Mbps</t>
+          <t>Download speed: 1.74 Mbps , Upload speed: 5.95 Mbps</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C21" t="n">
-        <v>20000</v>
+        <v>380.24</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn937513508.opengw.net:1312"&gt;vpn937513508.opengw.net:1312&lt;/a&gt;</t>
+          <t>&lt;a href="vpn983526954.opengw.net:1752"&gt;vpn983526954.opengw.net:1752&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Download speed: 2.49 Mbps , Upload speed: 3.95 Mbps</t>
+          <t>Download speed: 2.01 Mbps , Upload speed: 1.53 Mbps</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C22" t="n">
-        <v>20000</v>
+        <v>382.47</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn911637066.opengw.net:1832"&gt;vpn911637066.opengw.net:1832&lt;/a&gt;</t>
+          <t>&lt;a href="vpn299324797.opengw.net:1564"&gt;vpn299324797.opengw.net:1564&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Download speed: 1.82 Mbps , Upload speed: 4.04 Mbps</t>
+          <t>Download speed: 1.44 Mbps , Upload speed: 2.23 Mbps</t>
         </is>
       </c>
     </row>
@@ -950,65 +950,65 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C23" t="n">
-        <v>20000</v>
+        <v>384.6</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn756164752.opengw.net:1664"&gt;vpn756164752.opengw.net:1664&lt;/a&gt;</t>
+          <t>&lt;a href="vpn599328825.opengw.net:1649"&gt;vpn599328825.opengw.net:1649&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Download speed: 1.51 Mbps , Upload speed: 3.15 Mbps</t>
+          <t>Download speed: 2.15 Mbps , Upload speed: 3.80 Mbps</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Viet Nam</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>20000</v>
+        <v>389.19</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn747206214.opengw.net:995"&gt;vpn747206214.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn640862155.opengw.net:1480"&gt;vpn640862155.opengw.net:1480&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Download speed: 2.34 Mbps , Upload speed: 3.99 Mbps</t>
+          <t>Download speed: 1.52 Mbps , Upload speed: 7.27 Mbps</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C25" t="n">
-        <v>20000</v>
+        <v>394.97</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn108012541.opengw.net"&gt;vpn108012541.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn911199071.opengw.net:1826"&gt;vpn911199071.opengw.net:1826&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Download speed: 4.54 Mbps , Upload speed: 3.41 Mbps</t>
+          <t>Download speed: 2.45 Mbps , Upload speed: 0.98 Mbps</t>
         </is>
       </c>
     </row>
@@ -1019,42 +1019,42 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C26" t="n">
-        <v>20000</v>
+        <v>401</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn676594305.opengw.net:1418"&gt;vpn676594305.opengw.net:1418&lt;/a&gt;</t>
+          <t>&lt;a href="vpn368761167.opengw.net:1319"&gt;vpn368761167.opengw.net:1319&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Download speed: 2.77 Mbps , Upload speed: 3.56 Mbps</t>
+          <t>Download speed: 1.19 Mbps , Upload speed: 1.02 Mbps</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>20000</v>
+        <v>401.11</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn927590553.opengw.net:995"&gt;vpn927590553.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn198615240.opengw.net:1349"&gt;vpn198615240.opengw.net:1349&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Download speed: 2.88 Mbps , Upload speed: 4.96 Mbps</t>
+          <t>Download speed: 1.66 Mbps , Upload speed: 9.66 Mbps</t>
         </is>
       </c>
     </row>
@@ -1065,19 +1065,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C28" t="n">
-        <v>20000</v>
+        <v>405.12</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn275000167.opengw.net:1202"&gt;vpn275000167.opengw.net:1202&lt;/a&gt;</t>
+          <t>&lt;a href="vpn483221988.opengw.net:1937"&gt;vpn483221988.opengw.net:1937&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Download speed: 2.18 Mbps , Upload speed: 2.40 Mbps</t>
+          <t>Download speed: 1.56 Mbps , Upload speed: 1.92 Mbps</t>
         </is>
       </c>
     </row>
@@ -1091,39 +1091,39 @@
         <v>41</v>
       </c>
       <c r="C29" t="n">
-        <v>20000</v>
+        <v>407.1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn626132705.opengw.net:1696"&gt;vpn626132705.opengw.net:1696&lt;/a&gt;</t>
+          <t>&lt;a href="vpn528905648.opengw.net:1675"&gt;vpn528905648.opengw.net:1675&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Download speed: 3.74 Mbps , Upload speed: 2.66 Mbps</t>
+          <t>Download speed: 1.05 Mbps , Upload speed: 3.13 Mbps</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C30" t="n">
-        <v>20000</v>
+        <v>412.51</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn183661182.opengw.net:995"&gt;vpn183661182.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn477916218.opengw.net:1759"&gt;vpn477916218.opengw.net:1759&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Download speed: 1.64 Mbps , Upload speed: 3.17 Mbps</t>
+          <t>Download speed: 2.05 Mbps , Upload speed: 2.09 Mbps</t>
         </is>
       </c>
     </row>
@@ -1134,65 +1134,65 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C31" t="n">
-        <v>20000</v>
+        <v>419.75</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn446158116.opengw.net:1376"&gt;vpn446158116.opengw.net:1376&lt;/a&gt;</t>
+          <t>&lt;a href="vpn742329685.opengw.net:1223"&gt;vpn742329685.opengw.net:1223&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Download speed: 2.33 Mbps , Upload speed: 4.56 Mbps</t>
+          <t>Download speed: 2.19 Mbps , Upload speed: 1.42 Mbps</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C32" t="n">
-        <v>20000</v>
+        <v>424.24</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn320444679.opengw.net:1494"&gt;vpn320444679.opengw.net:1494&lt;/a&gt;</t>
+          <t>&lt;a href="vpn441942832.opengw.net:1331"&gt;vpn441942832.opengw.net:1331&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Download speed: 3.68 Mbps , Upload speed: 6.37 Mbps</t>
+          <t>Download speed: 1.80 Mbps , Upload speed: 1.90 Mbps</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C33" t="n">
-        <v>20000</v>
+        <v>442.36</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn887190747.opengw.net:1766"&gt;vpn887190747.opengw.net:1766&lt;/a&gt;</t>
+          <t>&lt;a href="vpn862079854.opengw.net:1295"&gt;vpn862079854.opengw.net:1295&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Download speed: 3.42 Mbps , Upload speed: 3.78 Mbps</t>
+          <t>Download speed: 1.16 Mbps , Upload speed: 2.55 Mbps</t>
         </is>
       </c>
     </row>
@@ -1203,42 +1203,42 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" t="n">
-        <v>20000</v>
+        <v>443.56</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn338927695.opengw.net:1698"&gt;vpn338927695.opengw.net:1698&lt;/a&gt;</t>
+          <t>&lt;a href="vpn939903879.opengw.net:1332"&gt;vpn939903879.opengw.net:1332&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Download speed: 2.21 Mbps , Upload speed: 1.79 Mbps</t>
+          <t>Download speed: 1.03 Mbps , Upload speed: 2.20 Mbps</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
-        <v>20000</v>
+        <v>451.35</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn663956788.opengw.net:1425"&gt;vpn663956788.opengw.net:1425&lt;/a&gt;</t>
+          <t>&lt;a href="kappa820.opengw.net"&gt;kappa820.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Download speed: 3.02 Mbps , Upload speed: 3.23 Mbps</t>
+          <t>Download speed: 1.78 Mbps , Upload speed: 4.56 Mbps</t>
         </is>
       </c>
     </row>
@@ -1249,19 +1249,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C36" t="n">
-        <v>20000</v>
+        <v>457.1</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn846040946.opengw.net:1370"&gt;vpn846040946.opengw.net:1370&lt;/a&gt;</t>
+          <t>&lt;a href="vpn989532162.opengw.net:1350"&gt;vpn989532162.opengw.net:1350&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Download speed: 1.76 Mbps , Upload speed: 3.61 Mbps</t>
+          <t>Download speed: 1.23 Mbps , Upload speed: 2.03 Mbps</t>
         </is>
       </c>
     </row>
@@ -1272,19 +1272,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C37" t="n">
-        <v>20000</v>
+        <v>461.39</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn671622989.opengw.net:995"&gt;vpn671622989.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn248082495.opengw.net:1274"&gt;vpn248082495.opengw.net:1274&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Download speed: 1.98 Mbps , Upload speed: 3.52 Mbps</t>
+          <t>Download speed: 2.65 Mbps , Upload speed: 3.23 Mbps</t>
         </is>
       </c>
     </row>
@@ -1295,203 +1295,203 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C38" t="n">
-        <v>20000</v>
+        <v>483.28</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn975880760.opengw.net:995"&gt;vpn975880760.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn758827282.opengw.net:1574"&gt;vpn758827282.opengw.net:1574&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Download speed: 2.79 Mbps , Upload speed: 2.84 Mbps</t>
+          <t>Download speed: 1.12 Mbps , Upload speed: 3.62 Mbps</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" t="n">
-        <v>20000</v>
+        <v>485.81</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn502466785.opengw.net:995"&gt;vpn502466785.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="public-vpn-137.opengw.net"&gt;public-vpn-137.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Download speed: 2.35 Mbps , Upload speed: 2.07 Mbps</t>
+          <t>Download speed: 1.78 Mbps , Upload speed: 3.87 Mbps</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C40" t="n">
-        <v>20000</v>
+        <v>487</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn966104001.opengw.net:1241"&gt;vpn966104001.opengw.net:1241&lt;/a&gt;</t>
+          <t>&lt;a href="vpn414814760.opengw.net:1482"&gt;vpn414814760.opengw.net:1482&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Download speed: 2.50 Mbps , Upload speed: 3.12 Mbps</t>
+          <t>Download speed: 5.19 Mbps , Upload speed: 3.94 Mbps</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>20000</v>
+        <v>536.37</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>&lt;a href="public-vpn-137.opengw.net"&gt;public-vpn-137.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn327248508.opengw.net:1510"&gt;vpn327248508.opengw.net:1510&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Download speed: 1.43 Mbps , Upload speed: 2.03 Mbps</t>
+          <t>Download speed: 2.23 Mbps , Upload speed: 7.22 Mbps</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C42" t="n">
-        <v>20000</v>
+        <v>561.47</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn980142870.opengw.net:1412"&gt;vpn980142870.opengw.net:1412&lt;/a&gt;</t>
+          <t>&lt;a href="vpn260930213.opengw.net:1609"&gt;vpn260930213.opengw.net:1609&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Download speed: 2.05 Mbps , Upload speed: 2.17 Mbps</t>
+          <t>Download speed: 2.03 Mbps , Upload speed: 6.71 Mbps</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C43" t="n">
-        <v>20000</v>
+        <v>676.8200000000001</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn710969257.opengw.net:1885"&gt;vpn710969257.opengw.net:1885&lt;/a&gt;</t>
+          <t>&lt;a href="vpn810348773.opengw.net:1496"&gt;vpn810348773.opengw.net:1496&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Download speed: 1.89 Mbps , Upload speed: 3.71 Mbps</t>
+          <t>Download speed: 4.03 Mbps , Upload speed: 8.72 Mbps</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C44" t="n">
-        <v>20000</v>
+        <v>777.3200000000001</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn289917189.opengw.net:1410"&gt;vpn289917189.opengw.net:1410&lt;/a&gt;</t>
+          <t>&lt;a href="vpn567151845.opengw.net:995"&gt;vpn567151845.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Download speed: 1.18 Mbps , Upload speed: 3.44 Mbps</t>
+          <t>Download speed: 1.35 Mbps , Upload speed: 3.92 Mbps</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C45" t="n">
-        <v>20000</v>
+        <v>926.61</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn856118002.opengw.net:1385"&gt;vpn856118002.opengw.net:1385&lt;/a&gt;</t>
+          <t>&lt;a href="vpn757038783.opengw.net:1325"&gt;vpn757038783.opengw.net:1325&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Download speed: 0.71 Mbps , Upload speed: 3.24 Mbps</t>
+          <t>Download speed: 0.99 Mbps , Upload speed: 1.34 Mbps</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C46" t="n">
-        <v>20000</v>
+        <v>1584.28</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn555810489.opengw.net:1633"&gt;vpn555810489.opengw.net:1633&lt;/a&gt;</t>
+          <t>&lt;a href="vpn489134219.opengw.net:1286"&gt;vpn489134219.opengw.net:1286&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Download speed: 1.28 Mbps , Upload speed: 1.97 Mbps</t>
+          <t>Download speed: 1.22 Mbps , Upload speed: 2.19 Mbps</t>
         </is>
       </c>
     </row>
@@ -1509,58 +1509,58 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn225421256.opengw.net:1880"&gt;vpn225421256.opengw.net:1880&lt;/a&gt;</t>
+          <t>&lt;a href="vpn128679282.opengw.net:1713"&gt;vpn128679282.opengw.net:1713&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Download speed: 3.10 Mbps , Upload speed: 4.85 Mbps</t>
+          <t>Download speed: 2.10 Mbps , Upload speed: 4.54 Mbps</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C48" t="n">
         <v>20000</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn678331002.opengw.net:1862"&gt;vpn678331002.opengw.net:1862&lt;/a&gt;</t>
+          <t>&lt;a href="vpn263259812.opengw.net:1274"&gt;vpn263259812.opengw.net:1274&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Download speed: 1.91 Mbps , Upload speed: 2.57 Mbps</t>
+          <t>Download speed: 1.66 Mbps , Upload speed: 4.16 Mbps</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C49" t="n">
         <v>20000</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn567662231.opengw.net:1367"&gt;vpn567662231.opengw.net:1367&lt;/a&gt;</t>
+          <t>&lt;a href="vpn268752135.opengw.net:995"&gt;vpn268752135.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Download speed: 1.96 Mbps , Upload speed: 3.05 Mbps</t>
+          <t>Download speed: 2.19 Mbps , Upload speed: 3.35 Mbps</t>
         </is>
       </c>
     </row>
@@ -1571,19 +1571,19 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C50" t="n">
         <v>20000</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn680583464.opengw.net:1958"&gt;vpn680583464.opengw.net:1958&lt;/a&gt;</t>
+          <t>&lt;a href="vpn708901573.opengw.net:1874"&gt;vpn708901573.opengw.net:1874&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Download speed: 1.58 Mbps , Upload speed: 2.66 Mbps</t>
+          <t>Download speed: 1.75 Mbps , Upload speed: 4.19 Mbps</t>
         </is>
       </c>
     </row>
@@ -1594,19 +1594,19 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C51" t="n">
         <v>20000</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn435394266.opengw.net:1495"&gt;vpn435394266.opengw.net:1495&lt;/a&gt;</t>
+          <t>&lt;a href="vpn361132587.opengw.net:1265"&gt;vpn361132587.opengw.net:1265&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Download speed: 2.59 Mbps , Upload speed: 2.58 Mbps</t>
+          <t>Download speed: 1.46 Mbps , Upload speed: 4.63 Mbps</t>
         </is>
       </c>
     </row>
@@ -1617,19 +1617,19 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
         <v>20000</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn463722158.opengw.net:1371"&gt;vpn463722158.opengw.net:1371&lt;/a&gt;</t>
+          <t>&lt;a href="vpn885559137.opengw.net:1790"&gt;vpn885559137.opengw.net:1790&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Download speed: 1.21 Mbps , Upload speed: 2.19 Mbps</t>
+          <t>Download speed: 2.21 Mbps , Upload speed: 7.26 Mbps</t>
         </is>
       </c>
     </row>
@@ -1640,65 +1640,65 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
         <v>20000</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn940496795.opengw.net:1242"&gt;vpn940496795.opengw.net:1242&lt;/a&gt;</t>
+          <t>&lt;a href="vpn643092142.opengw.net:1385"&gt;vpn643092142.opengw.net:1385&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Download speed: 1.56 Mbps , Upload speed: 3.21 Mbps</t>
+          <t>Download speed: 1.72 Mbps , Upload speed: 4.66 Mbps</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C54" t="n">
         <v>20000</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn431396938.opengw.net"&gt;vpn431396938.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn851059979.opengw.net:1213"&gt;vpn851059979.opengw.net:1213&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Download speed: 2.51 Mbps , Upload speed: 2.12 Mbps</t>
+          <t>Download speed: 1.68 Mbps , Upload speed: 11.89 Mbps</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
         <v>20000</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn445900976.opengw.net:1326"&gt;vpn445900976.opengw.net:1326&lt;/a&gt;</t>
+          <t>&lt;a href="vpn378704797.opengw.net:1315"&gt;vpn378704797.opengw.net:1315&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Download speed: 0.55 Mbps , Upload speed: 3.01 Mbps</t>
+          <t>Download speed: 2.16 Mbps , Upload speed: 5.17 Mbps</t>
         </is>
       </c>
     </row>
@@ -1709,65 +1709,65 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
         <v>20000</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>&lt;a href="public-vpn-189.opengw.net"&gt;public-vpn-189.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn810555411.opengw.net:1400"&gt;vpn810555411.opengw.net:1400&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Download speed: 2.03 Mbps , Upload speed: 3.66 Mbps</t>
+          <t>Download speed: 1.50 Mbps , Upload speed: 5.82 Mbps</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C57" t="n">
         <v>20000</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn20230415.opengw.net"&gt;vpn20230415.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn401789215.opengw.net:995"&gt;vpn401789215.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Download speed: 1.83 Mbps , Upload speed: 2.38 Mbps</t>
+          <t>Download speed: 1.98 Mbps , Upload speed: 6.89 Mbps</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C58" t="n">
         <v>20000</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn542234737.opengw.net:1452"&gt;vpn542234737.opengw.net:1452&lt;/a&gt;</t>
+          <t>&lt;a href="vpn237337990.opengw.net:1795"&gt;vpn237337990.opengw.net:1795&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Download speed: 2.58 Mbps , Upload speed: 3.98 Mbps</t>
+          <t>Download speed: 1.86 Mbps , Upload speed: 4.06 Mbps</t>
         </is>
       </c>
     </row>
@@ -1778,19 +1778,19 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C59" t="n">
         <v>20000</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn195710331.opengw.net:1531"&gt;vpn195710331.opengw.net:1531&lt;/a&gt;</t>
+          <t>&lt;a href="vpn435405670.opengw.net:995"&gt;vpn435405670.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Download speed: 1.53 Mbps , Upload speed: 0.57 Mbps</t>
+          <t>Download speed: 1.82 Mbps , Upload speed: 4.05 Mbps</t>
         </is>
       </c>
     </row>
@@ -1801,19 +1801,19 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C60" t="n">
         <v>20000</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn609498386.opengw.net:1892"&gt;vpn609498386.opengw.net:1892&lt;/a&gt;</t>
+          <t>&lt;a href="vpn967633031.opengw.net:995"&gt;vpn967633031.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Download speed: 1.05 Mbps , Upload speed: 2.78 Mbps</t>
+          <t>Download speed: 2.57 Mbps , Upload speed: 5.77 Mbps</t>
         </is>
       </c>
     </row>
@@ -1824,111 +1824,111 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C61" t="n">
         <v>20000</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn578398512.opengw.net:1730"&gt;vpn578398512.opengw.net:1730&lt;/a&gt;</t>
+          <t>&lt;a href="vpn200628345.opengw.net:995"&gt;vpn200628345.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Download speed: 1.40 Mbps , Upload speed: 2.72 Mbps</t>
+          <t>Download speed: 2.37 Mbps , Upload speed: 3.60 Mbps</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Viet Nam</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C62" t="n">
         <v>20000</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn441942832.opengw.net:1331"&gt;vpn441942832.opengw.net:1331&lt;/a&gt;</t>
+          <t>&lt;a href="vpn955181394.opengw.net:1275"&gt;vpn955181394.opengw.net:1275&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Download speed: 2.00 Mbps , Upload speed: 2.99 Mbps</t>
+          <t>Download speed: 1.46 Mbps , Upload speed: 8.93 Mbps</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C63" t="n">
         <v>20000</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn606729171.opengw.net:1887"&gt;vpn606729171.opengw.net:1887&lt;/a&gt;</t>
+          <t>&lt;a href="vpn562781315.opengw.net:995"&gt;vpn562781315.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Download speed: 2.25 Mbps , Upload speed: 3.75 Mbps</t>
+          <t>Download speed: 1.52 Mbps , Upload speed: 4.77 Mbps</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C64" t="n">
         <v>20000</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn176757344.opengw.net:1775"&gt;vpn176757344.opengw.net:1775&lt;/a&gt;</t>
+          <t>&lt;a href="vpn174041734.opengw.net:995"&gt;vpn174041734.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Download speed: 3.30 Mbps , Upload speed: 1.60 Mbps</t>
+          <t>Download speed: 1.55 Mbps , Upload speed: 7.13 Mbps</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C65" t="n">
         <v>20000</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn415795767.opengw.net:1825"&gt;vpn415795767.opengw.net:1825&lt;/a&gt;</t>
+          <t>&lt;a href="vpn226970545.opengw.net:1447"&gt;vpn226970545.opengw.net:1447&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Download speed: 2.30 Mbps , Upload speed: 3.95 Mbps</t>
+          <t>Download speed: 1.81 Mbps , Upload speed: 5.31 Mbps</t>
         </is>
       </c>
     </row>
@@ -1939,42 +1939,42 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C66" t="n">
         <v>20000</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn331276652.opengw.net:995"&gt;vpn331276652.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn532795755.opengw.net:1742"&gt;vpn532795755.opengw.net:1742&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Download speed: 2.04 Mbps , Upload speed: 2.95 Mbps</t>
+          <t>Download speed: 4.30 Mbps , Upload speed: 3.93 Mbps</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Korea Republic of</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C67" t="n">
         <v>20000</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn176792365.opengw.net:1648"&gt;vpn176792365.opengw.net:1648&lt;/a&gt;</t>
+          <t>&lt;a href="vpn372144975.opengw.net:1572"&gt;vpn372144975.opengw.net:1572&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Download speed: 2.21 Mbps , Upload speed: 3.84 Mbps</t>
+          <t>Download speed: 2.64 Mbps , Upload speed: 4.89 Mbps</t>
         </is>
       </c>
     </row>
@@ -1985,19 +1985,19 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C68" t="n">
         <v>20000</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn110154966.opengw.net:1648"&gt;vpn110154966.opengw.net:1648&lt;/a&gt;</t>
+          <t>&lt;a href="vpn236618451.opengw.net:1732"&gt;vpn236618451.opengw.net:1732&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Download speed: 2.09 Mbps , Upload speed: 4.41 Mbps</t>
+          <t>Download speed: 2.51 Mbps , Upload speed: 5.02 Mbps</t>
         </is>
       </c>
     </row>
@@ -2008,42 +2008,42 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C69" t="n">
         <v>20000</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn103818727.opengw.net:1629"&gt;vpn103818727.opengw.net:1629&lt;/a&gt;</t>
+          <t>&lt;a href="vpn361751578.opengw.net:1343"&gt;vpn361751578.opengw.net:1343&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Download speed: 2.57 Mbps , Upload speed: 4.46 Mbps</t>
+          <t>Download speed: 2.09 Mbps , Upload speed: 3.76 Mbps</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C70" t="n">
         <v>20000</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>&lt;a href="public-vpn-88.opengw.net"&gt;public-vpn-88.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn887309670.opengw.net:1644"&gt;vpn887309670.opengw.net:1644&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Download speed: 6.15 Mbps , Upload speed: 3.28 Mbps</t>
+          <t>Download speed: 5.81 Mbps , Upload speed: 5.55 Mbps</t>
         </is>
       </c>
     </row>
@@ -2054,19 +2054,19 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C71" t="n">
         <v>20000</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn455519155.opengw.net:1474"&gt;vpn455519155.opengw.net:1474&lt;/a&gt;</t>
+          <t>&lt;a href="vpn20230415.opengw.net"&gt;vpn20230415.opengw.net&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Download speed: 3.86 Mbps , Upload speed: 5.67 Mbps</t>
+          <t>Download speed: 2.10 Mbps , Upload speed: 4.08 Mbps</t>
         </is>
       </c>
     </row>
@@ -2077,42 +2077,249 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C72" t="n">
         <v>20000</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn209265073.opengw.net:995"&gt;vpn209265073.opengw.net:995&lt;/a&gt;</t>
+          <t>&lt;a href="vpn779280087.opengw.net:995"&gt;vpn779280087.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Download speed: 2.22 Mbps , Upload speed: 2.96 Mbps</t>
+          <t>Download speed: 1.71 Mbps , Upload speed: 9.00 Mbps</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Korea Republic of</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="C73" t="n">
         <v>20000</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>&lt;a href="vpn432295087.opengw.net"&gt;vpn432295087.opengw.net&lt;/a&gt;</t>
+          <t>&lt;a href="vpn870221165.opengw.net:995"&gt;vpn870221165.opengw.net:995&lt;/a&gt;</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Download speed: 1.70 Mbps , Upload speed: 3.53 Mbps</t>
+          <t>Download speed: 2.08 Mbps , Upload speed: 5.57 Mbps</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Korea Republic of</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>28</v>
+      </c>
+      <c r="C74" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>&lt;a href="vpn337816025.opengw.net:995"&gt;vpn337816025.opengw.net:995&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Download speed: 1.80 Mbps , Upload speed: 6.67 Mbps</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Korea Republic of</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>29</v>
+      </c>
+      <c r="C75" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>&lt;a href="vpn280523246.opengw.net:995"&gt;vpn280523246.opengw.net:995&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Download speed: 1.98 Mbps , Upload speed: 7.73 Mbps</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>9</v>
+      </c>
+      <c r="C76" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>&lt;a href="vpn252156856.opengw.net:1594"&gt;vpn252156856.opengw.net:1594&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Download speed: 1.95 Mbps , Upload speed: 5.64 Mbps</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Korea Republic of</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>30</v>
+      </c>
+      <c r="C77" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>&lt;a href="vpn272531111.opengw.net:1855"&gt;vpn272531111.opengw.net:1855&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Download speed: 1.60 Mbps , Upload speed: 4.29 Mbps</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>9</v>
+      </c>
+      <c r="C78" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>&lt;a href="vpn929457821.opengw.net:1228"&gt;vpn929457821.opengw.net:1228&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Download speed: 1.53 Mbps , Upload speed: 6.31 Mbps</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Korea Republic of</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>30</v>
+      </c>
+      <c r="C79" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>&lt;a href="vpn262783424.opengw.net:995"&gt;vpn262783424.opengw.net:995&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Download speed: 1.32 Mbps , Upload speed: 2.36 Mbps</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Korea Republic of</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>22</v>
+      </c>
+      <c r="C80" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>&lt;a href="vpn776021893.opengw.net:995"&gt;vpn776021893.opengw.net:995&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Download speed: 2.56 Mbps , Upload speed: 3.12 Mbps</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Korea Republic of</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>31</v>
+      </c>
+      <c r="C81" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>&lt;a href="vpn642157131.opengw.net:995"&gt;vpn642157131.opengw.net:995&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Download speed: 1.51 Mbps , Upload speed: 6.80 Mbps</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>20000</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>&lt;a href="vpn699596790.opengw.net:1953"&gt;vpn699596790.opengw.net:1953&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Download speed: 1.71 Mbps , Upload speed: 5.53 Mbps</t>
         </is>
       </c>
     </row>

--- a/sstp.xlsx
+++ b/sstp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE660BF-48AF-47AC-B9BA-A277BA61A951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7607F49C-1E29-4DF5-BBE3-FD07F5D2C185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="247">
   <si>
     <t>country</t>
   </si>
@@ -34,700 +34,733 @@
     <t>sstp_link</t>
   </si>
   <si>
+    <t>Estonia</t>
+  </si>
+  <si>
     <t>United States</t>
   </si>
   <si>
-    <t>Estonia</t>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Korea Republic of</t>
+  </si>
+  <si>
+    <t>Thailand</t>
   </si>
   <si>
     <t>Russian Federation</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Korea Republic of</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
+    <t>vpn432295087.opengw.net</t>
   </si>
   <si>
     <t>vpn431396938.opengw.net</t>
   </si>
   <si>
-    <t>vpn432295087.opengw.net</t>
-  </si>
-  <si>
-    <t>vpn957274764.opengw.net:1384</t>
-  </si>
-  <si>
-    <t>vpn477916218.opengw.net:1759</t>
-  </si>
-  <si>
-    <t>public-vpn-170.opengw.net</t>
-  </si>
-  <si>
-    <t>vpn350001435.opengw.net:995</t>
-  </si>
-  <si>
-    <t>vpn884548829.opengw.net:995</t>
-  </si>
-  <si>
-    <t>vpn595454165.opengw.net:1341</t>
+    <t>public-vpn-189.opengw.net</t>
+  </si>
+  <si>
+    <t>public-vpn-88.opengw.net</t>
+  </si>
+  <si>
+    <t>vpn497166820.opengw.net:1999</t>
+  </si>
+  <si>
+    <t>vpn511431660.opengw.net:1432</t>
+  </si>
+  <si>
+    <t>vpn749684365.opengw.net:1626</t>
+  </si>
+  <si>
+    <t>vpn599703652.opengw.net:1882</t>
+  </si>
+  <si>
+    <t>vpn625115849.opengw.net:1596</t>
+  </si>
+  <si>
+    <t>vpn976305439.opengw.net:1986</t>
+  </si>
+  <si>
+    <t>vpn750183725.opengw.net:1580</t>
+  </si>
+  <si>
+    <t>vpn597062246.opengw.net:1481</t>
+  </si>
+  <si>
+    <t>vpn553450511.opengw.net:1318</t>
+  </si>
+  <si>
+    <t>vpn593168638.opengw.net:1727</t>
+  </si>
+  <si>
+    <t>vpn305806016.opengw.net:995</t>
+  </si>
+  <si>
+    <t>vpn863292650.opengw.net:1889</t>
+  </si>
+  <si>
+    <t>vpn415804034.opengw.net:1985</t>
+  </si>
+  <si>
+    <t>vpn219242937.opengw.net:1453</t>
+  </si>
+  <si>
+    <t>vpn542215610.opengw.net:1829</t>
+  </si>
+  <si>
+    <t>vpn639952519.opengw.net:995</t>
+  </si>
+  <si>
+    <t>vpn589889480.opengw.net:1565</t>
+  </si>
+  <si>
+    <t>vpn432981818.opengw.net:1945</t>
+  </si>
+  <si>
+    <t>vpn341024493.opengw.net:1805</t>
+  </si>
+  <si>
+    <t>vpn616346346.opengw.net:1948</t>
+  </si>
+  <si>
+    <t>vpn326596710.opengw.net:1575</t>
+  </si>
+  <si>
+    <t>vpn958182836.opengw.net:1376</t>
+  </si>
+  <si>
+    <t>vpn897580543.opengw.net:1973</t>
+  </si>
+  <si>
+    <t>vpn749182986.opengw.net:1894</t>
+  </si>
+  <si>
+    <t>vpn799738363.opengw.net:1745</t>
+  </si>
+  <si>
+    <t>vpn583278988.opengw.net:1839</t>
+  </si>
+  <si>
+    <t>vpn574067639.opengw.net:1740</t>
+  </si>
+  <si>
+    <t>vpn604747030.opengw.net:1569</t>
+  </si>
+  <si>
+    <t>vpn933219282.opengw.net:1413</t>
+  </si>
+  <si>
+    <t>vpn709750107.opengw.net:1745</t>
+  </si>
+  <si>
+    <t>vpn466730894.opengw.net:1991</t>
+  </si>
+  <si>
+    <t>vpn934536264.opengw.net:1447</t>
+  </si>
+  <si>
+    <t>vpn295009792.opengw.net:1980</t>
+  </si>
+  <si>
+    <t>vpn378197338.opengw.net:1278</t>
+  </si>
+  <si>
+    <t>vpn911255928.opengw.net:1234</t>
+  </si>
+  <si>
+    <t>vpn118797613.opengw.net:995</t>
   </si>
   <si>
     <t>public-vpn-137.opengw.net</t>
   </si>
   <si>
-    <t>vpn224127353.opengw.net:995</t>
-  </si>
-  <si>
-    <t>vpn754249588.opengw.net:1319</t>
-  </si>
-  <si>
-    <t>vpn670156397.opengw.net:1334</t>
-  </si>
-  <si>
-    <t>vpn983526954.opengw.net:1752</t>
-  </si>
-  <si>
-    <t>vpn276081139.opengw.net:1549</t>
-  </si>
-  <si>
-    <t>vpn229642564.opengw.net:1248</t>
-  </si>
-  <si>
-    <t>vpn688826902.opengw.net:1300</t>
-  </si>
-  <si>
-    <t>vpn825962387.opengw.net:1647</t>
-  </si>
-  <si>
-    <t>vpn625115849.opengw.net:1596</t>
-  </si>
-  <si>
-    <t>vpn667956274.opengw.net:1776</t>
-  </si>
-  <si>
-    <t>vpn142179145.opengw.net:1418</t>
-  </si>
-  <si>
-    <t>vpn810348773.opengw.net:1496</t>
-  </si>
-  <si>
-    <t>vpn862079854.opengw.net:1295</t>
-  </si>
-  <si>
-    <t>vpn952546144.opengw.net:1341</t>
-  </si>
-  <si>
-    <t>public-vpn-189.opengw.net</t>
-  </si>
-  <si>
-    <t>vpn782074361.opengw.net:1868</t>
-  </si>
-  <si>
-    <t>vpn939903879.opengw.net:1332</t>
-  </si>
-  <si>
-    <t>kappa820.opengw.net</t>
-  </si>
-  <si>
-    <t>vpn911255928.opengw.net:1234</t>
-  </si>
-  <si>
-    <t>vpn141353891.opengw.net:1632</t>
-  </si>
-  <si>
-    <t>vpn230909511.opengw.net:1752</t>
-  </si>
-  <si>
-    <t>vpn518541556.opengw.net:1443</t>
-  </si>
-  <si>
-    <t>vpn684740818.opengw.net:1441</t>
-  </si>
-  <si>
-    <t>vpn299324797.opengw.net:1564</t>
-  </si>
-  <si>
-    <t>vpn212056745.opengw.net:1583</t>
-  </si>
-  <si>
-    <t>vpn868034860.opengw.net:1834</t>
-  </si>
-  <si>
-    <t>vpn702093302.opengw.net:1792</t>
-  </si>
-  <si>
-    <t>vpn540017349.opengw.net:1970</t>
-  </si>
-  <si>
-    <t>vpn489134219.opengw.net:1286</t>
-  </si>
-  <si>
-    <t>vpn295009792.opengw.net:1980</t>
-  </si>
-  <si>
-    <t>vpn446826062.opengw.net:1436</t>
-  </si>
-  <si>
-    <t>vpn938330727.opengw.net:995</t>
-  </si>
-  <si>
-    <t>vpn311334902.opengw.net:995</t>
-  </si>
-  <si>
-    <t>vpn268752135.opengw.net:995</t>
-  </si>
-  <si>
-    <t>vpn901657429.opengw.net:1372</t>
-  </si>
-  <si>
-    <t>vpn401789215.opengw.net:995</t>
-  </si>
-  <si>
-    <t>vpn902111760.opengw.net:1516</t>
-  </si>
-  <si>
-    <t>vpn817652301.opengw.net:1928</t>
-  </si>
-  <si>
-    <t>vpn435405670.opengw.net:995</t>
-  </si>
-  <si>
-    <t>vpn684111457.opengw.net:995</t>
-  </si>
-  <si>
-    <t>vpn923127820.opengw.net:995</t>
-  </si>
-  <si>
-    <t>vpn306799197.opengw.net:1877</t>
-  </si>
-  <si>
-    <t>vpn322196242.opengw.net:1398</t>
-  </si>
-  <si>
-    <t>vpn517690502.opengw.net:1461</t>
-  </si>
-  <si>
-    <t>vpn415318540.opengw.net:1773</t>
-  </si>
-  <si>
-    <t>vpn132799288.opengw.net:1871</t>
-  </si>
-  <si>
-    <t>vpn128679282.opengw.net:1713</t>
-  </si>
-  <si>
-    <t>vpn479200193.opengw.net:1813</t>
+    <t>vpn230775814.opengw.net:1234</t>
+  </si>
+  <si>
+    <t>vpn364046897.opengw.net:1571</t>
+  </si>
+  <si>
+    <t>vpn324904981.opengw.net:995</t>
+  </si>
+  <si>
+    <t>vpn815691442.opengw.net:1631</t>
+  </si>
+  <si>
+    <t>vpn789270830.opengw.net:995</t>
+  </si>
+  <si>
+    <t>vpn105079557.opengw.net:995</t>
+  </si>
+  <si>
+    <t>vpn190064852.opengw.net:1785</t>
+  </si>
+  <si>
+    <t>vpn451755087.opengw.net:1893</t>
+  </si>
+  <si>
+    <t>vpn223717605.opengw.net:995</t>
+  </si>
+  <si>
+    <t>vpn892899447.opengw.net:1988</t>
+  </si>
+  <si>
+    <t>vpn414018147.opengw.net:995</t>
   </si>
   <si>
     <t>vpn722551596.opengw.net:1414</t>
   </si>
   <si>
-    <t>public-vpn-88.opengw.net</t>
-  </si>
-  <si>
-    <t>vpn980098938.opengw.net:1264</t>
-  </si>
-  <si>
-    <t>vpn953075637.opengw.net:1639</t>
-  </si>
-  <si>
-    <t>vpn993482442.opengw.net:1972</t>
-  </si>
-  <si>
-    <t>vpn532795755.opengw.net:1742</t>
-  </si>
-  <si>
-    <t>vpn146623633.opengw.net:1755</t>
-  </si>
-  <si>
-    <t>vpn252266486.opengw.net:1501</t>
-  </si>
-  <si>
-    <t>vpn391292136.opengw.net:1456</t>
-  </si>
-  <si>
-    <t>vpn812743114.opengw.net:1868</t>
-  </si>
-  <si>
-    <t>vpn505415410.opengw.net:995</t>
-  </si>
-  <si>
-    <t>vpn708901573.opengw.net:1874</t>
-  </si>
-  <si>
-    <t>vpn437441838.opengw.net:1647</t>
-  </si>
-  <si>
-    <t>vpn283315404.opengw.net:1360</t>
-  </si>
-  <si>
-    <t>vpn422437794.opengw.net:995</t>
-  </si>
-  <si>
-    <t>vpn887309670.opengw.net:1644</t>
-  </si>
-  <si>
-    <t>vpn553564447.opengw.net:995</t>
-  </si>
-  <si>
-    <t>vpn280523246.opengw.net:995</t>
-  </si>
-  <si>
-    <t>vpn892970531.opengw.net:995</t>
-  </si>
-  <si>
-    <t>vpn642157131.opengw.net:995</t>
-  </si>
-  <si>
-    <t>vpn263259812.opengw.net:1274</t>
-  </si>
-  <si>
-    <t>vpn20230415.opengw.net</t>
+    <t>vpn728954424.opengw.net:995</t>
+  </si>
+  <si>
+    <t>vpn445306336.opengw.net:1295</t>
+  </si>
+  <si>
+    <t>vpn585747412.opengw.net:1400</t>
+  </si>
+  <si>
+    <t>vpn668768967.opengw.net:1449</t>
+  </si>
+  <si>
+    <t>vpn481359948.opengw.net:1600</t>
+  </si>
+  <si>
+    <t>vpn275686320.opengw.net:1517</t>
+  </si>
+  <si>
+    <t>vpn636006730.opengw.net:1700</t>
+  </si>
+  <si>
+    <t>vpn815019043.opengw.net:995</t>
+  </si>
+  <si>
+    <t>vpn689832237.opengw.net:1236</t>
+  </si>
+  <si>
+    <t>vpn194903331.opengw.net:995</t>
+  </si>
+  <si>
+    <t>vpn519334784.opengw.net:995</t>
+  </si>
+  <si>
+    <t>vpn120227626.opengw.net:995</t>
+  </si>
+  <si>
+    <t>vpn157632952.opengw.net:995</t>
+  </si>
+  <si>
+    <t>vpn316785296.opengw.net:995</t>
+  </si>
+  <si>
+    <t>vpn546581976.opengw.net:995</t>
+  </si>
+  <si>
+    <t>vpn784169523.opengw.net:995</t>
+  </si>
+  <si>
+    <t>vpn779078652.opengw.net:1232</t>
+  </si>
+  <si>
+    <t>vpn304521276.opengw.net:995</t>
+  </si>
+  <si>
+    <t>vpn217811389.opengw.net:995</t>
+  </si>
+  <si>
+    <t>vpn277910437.opengw.net:1643</t>
+  </si>
+  <si>
+    <t>vpn855515524.opengw.net:1688</t>
+  </si>
+  <si>
+    <t>vpn574357771.opengw.net:1299</t>
+  </si>
+  <si>
+    <t>vpn435356025.opengw.net:1692</t>
+  </si>
+  <si>
+    <t>vpn419503797.opengw.net:995</t>
+  </si>
+  <si>
+    <t>vpn766018619.opengw.net:1682</t>
+  </si>
+  <si>
+    <t>vpn809256268.opengw.net:1900</t>
+  </si>
+  <si>
+    <t>vpn928977310.opengw.net:1369</t>
+  </si>
+  <si>
+    <t>vpn535372904.opengw.net:995</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 1.17 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 4.16 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 5.43 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 5.99 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 7.91 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 2.74 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 7.77 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 5.89 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 7.14 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 4.17 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 7.19 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 5.91 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 4.85 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 5.45 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 2.99 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 0.00 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 6.23 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 7.37 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 4.66 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 8.82 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 4.46 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 8.17 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 8.64 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 3.06 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 4.82 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 3.17 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 5.37 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 5.76 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 6.83 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 3.67 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 3.65 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 3.62 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 5.55 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 2.52 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 3.71 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 4.72 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 2.76 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 8.59 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 7.83 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 3.85 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 5.70 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 2.36 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 6.87 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 4.33 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 6.46 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 2.92 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 10.10 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 11.73 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 6.10 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 1.46 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 6.26 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 3.56 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 3.80 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 1.47 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 2.61 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 3.49 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 5.81 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 6.64 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 5.08 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 5.71 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 5.62 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 3.22 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 6.02 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 3.38 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 8.60 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 3.18 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 2.07 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 7.71 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 2.58 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 6.98 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 2.55 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 13.96 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 4.72 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 6.95 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 7.58 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 3.20 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 2.44 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 13.50 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 3.15 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 9.21 Mb</t>
+  </si>
+  <si>
+    <t>Download speed: 10.27 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 2.03 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 5.63 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 4.30 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 6.49 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 3.29 Mbp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 1.45 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 7.30 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 1.66 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 3.41 Mb</t>
+  </si>
+  <si>
+    <t>Download speed: 6.54 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 2.68 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 3.37 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 3.41 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 11.71 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 8.95 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 13.46 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 4.45 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 4.81 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 6.41 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 3.43 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 7.48 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 3.69 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 5.72 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 7.39 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 9.79 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 3.30 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 3.43 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 0.94 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 3.33 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 4.62 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 4.36 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 3.19 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 2.81 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 9.30 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 9.92 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 2.14 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 8.12 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 2.93 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 6.49 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 10.40 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 2.78 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 9.04 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 6.15 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 2.72 Mb</t>
+  </si>
+  <si>
+    <t>Download speed: 6.88 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 3.47 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 7.63 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 5.20 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 5.58 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 7.96 Mbp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 5.38 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 4.98 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 4.13 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 2.49 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 3.88 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 13.95 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 2.70 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 2.55 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 4.70 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 3.66 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 3.58 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 6.07 Mb</t>
+  </si>
+  <si>
+    <t>Download speed: 7.68 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 3.89 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 2.82 Mb</t>
+  </si>
+  <si>
+    <t>Download speed: 6.02 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 2.83 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 7.80 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 6.80 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 8.11 Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Upload speed: 4.74 Mbp</t>
+  </si>
+  <si>
+    <t>Download speed: 5.88 Mb</t>
+  </si>
+  <si>
+    <t>Download speed: 2.94 Mb</t>
+  </si>
+  <si>
+    <t>Dspeed_test_r</t>
   </si>
   <si>
     <t>Uspeed_test_r</t>
-  </si>
-  <si>
-    <t>Dspeed_test_r</t>
-  </si>
-  <si>
-    <t>Download speed: 9.22 Mbp</t>
-  </si>
-  <si>
-    <t>Download speed: 9.27 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 11.15 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 10.02 M</t>
-  </si>
-  <si>
-    <t>Download speed: 6.37 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 12.63 M</t>
-  </si>
-  <si>
-    <t>Download speed: 9.23 Mbp</t>
-  </si>
-  <si>
-    <t>Download speed: 7.25 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 8.77 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 6.90 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 10.59 M</t>
-  </si>
-  <si>
-    <t>Download speed: 7.75 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 7.86 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 12.47 M</t>
-  </si>
-  <si>
-    <t>Download speed: 9.51 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 7.67 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 8.28 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 3.26 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 6.75 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.05 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.00 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.01 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 12.33 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 15.71 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 6.11 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.19 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.42 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.28 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.35 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.45 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.27 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.26 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.15 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.16 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.22 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.25 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.23 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.24 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.20 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.36 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.30 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.41 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.18 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.14 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.11 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.12 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.10 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.21 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.38 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 0.31 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 9.84 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 9.73 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 7.22 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 4.69 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 7.32 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 5.60 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 8.68 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 10.27 M</t>
-  </si>
-  <si>
-    <t>Download speed: 11.92 M</t>
-  </si>
-  <si>
-    <t>Download speed: 6.51 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 7.89 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 7.35 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 9.79 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 12.60 M</t>
-  </si>
-  <si>
-    <t>Download speed: 5.53 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 4.45 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 7.84 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 8.15 Mb</t>
-  </si>
-  <si>
-    <t>Download speed: 12.95 M</t>
-  </si>
-  <si>
-    <t>Download speed: 9.34 Mb</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 10.56 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 7.49 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 10.72 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 7.27 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 6.37 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 4.25 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 10.38 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 3.09 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 8.82 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 3.80 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 4.11 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 4.27 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 5.61 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 5.39 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 7.55 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 3.01 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 6.11 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 5.60 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 0.27 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 0.97 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 0.66 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 14.86 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 12.23 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 7.40 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 0.41 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 0.42 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 4.39 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 1.72 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 0.44 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 2.71 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 2.05 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 1.98 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 2.78 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 1.04 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 2.15 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 1.00 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 2.66 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 1.14 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 1.16 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 2.42 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 1.80 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 2.33 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 2.40 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 0.00 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 2.38 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 2.82 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 1.69 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 0.70 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 1.35 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 2.16 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 2.44 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 3.13 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 1.74 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 4.90 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 4.72 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 1.75 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 2.06 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 2.67 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 3.61 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 4.98 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 7.95 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 4.67 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 3.63 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 3.78 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 7.16 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 4.04 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 6.42 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 5.33 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 2.11 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 2.59 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 4.31 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 9.99 Mbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Upload speed: 8.18 Mbp</t>
   </si>
 </sst>
 </file>
@@ -746,6 +779,7 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1104,16 +1138,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="22.25" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -1130,10 +1165,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>246</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>92</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1141,19 +1176,19 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="C2">
-        <v>152.05000000000001</v>
+        <v>202.88</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1161,16 +1196,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>153.88</v>
+        <v>234.11</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
         <v>94</v>
@@ -1181,964 +1216,964 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>186.35</v>
+        <v>400.09</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>241.54</v>
+        <v>400.13</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>328.04</v>
+        <v>407.94</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>330</v>
+        <v>410.01</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>343</v>
+        <v>421.53</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>343.63</v>
+        <v>423.07</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>347.15</v>
+        <v>424.82</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>33</v>
       </c>
       <c r="C11">
-        <v>355.08</v>
+        <v>425.74</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>27</v>
       </c>
       <c r="C12">
-        <v>355.5</v>
+        <v>426.73</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13">
-        <v>359.05</v>
+        <v>427.08</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
-        <v>361.05</v>
+        <v>428.47</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C15">
-        <v>361.08</v>
+        <v>429.64</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16">
-        <v>363.95</v>
+        <v>429.84</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
-        <v>364.03</v>
+        <v>430.04</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>365.67</v>
+        <v>431.62</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>367.04</v>
+        <v>433.52</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C20">
-        <v>375.59</v>
+        <v>434.98</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21">
-        <v>375.65</v>
+        <v>436.06</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C22">
-        <v>386.76</v>
+        <v>437.46</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>400.22</v>
+        <v>439.48</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="F23" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C24">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C25">
-        <v>414.07</v>
+        <v>440.84</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
-        <v>425.56</v>
+        <v>448.93</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>186</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>452.83</v>
+      </c>
+      <c r="D27" t="s">
         <v>35</v>
       </c>
-      <c r="C27">
-        <v>493.54</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
-      </c>
       <c r="E27" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>666</v>
+        <v>31</v>
       </c>
       <c r="C28">
-        <v>508.05</v>
+        <v>455.1</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>525.25</v>
+        <v>456.7</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="F29" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>682</v>
+        <v>456.95</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="F30" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>721.81</v>
+        <v>465.08</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>771</v>
+        <v>474.76</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="F32" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33">
-        <v>780.64</v>
+        <v>478.08</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="F33" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>796.59</v>
+        <v>482.24</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="F34" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>836.99</v>
+        <v>498.15</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36">
-        <v>986.14</v>
+        <v>502.56</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="F36" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C37">
-        <v>992.44</v>
+        <v>531.91999999999996</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B38">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="C38">
-        <v>1214.6600000000001</v>
+        <v>547.91999999999996</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C39">
-        <v>1262.03</v>
+        <v>639.36</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="F39" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B40">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C40">
-        <v>1531.12</v>
+        <v>639.55999999999995</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="F40" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C41">
-        <v>20000</v>
+        <v>674.2</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="F41" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C42">
-        <v>20000</v>
+        <v>725.04</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E42" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="F42" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C43">
-        <v>20000</v>
+        <v>731.94</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="F43" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C44">
-        <v>20000</v>
+        <v>920.04</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="F44" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B45">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C45">
-        <v>20000</v>
+        <v>972.2</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E45" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="F45" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B46">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C46">
-        <v>20000</v>
+        <v>1291.54</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="F46" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B47">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="C47">
         <v>20000</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E47" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F47" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B48">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C48">
         <v>20000</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E48" t="s">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="F48" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C49">
         <v>20000</v>
       </c>
       <c r="D49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E49" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="F49" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>20000</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E50" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="F50" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C51">
         <v>20000</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="F51" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -2147,73 +2182,73 @@
         <v>20000</v>
       </c>
       <c r="D52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E52" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="F52" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C53">
         <v>20000</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E53" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F53" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54">
         <v>8</v>
       </c>
-      <c r="B54">
-        <v>4</v>
-      </c>
       <c r="C54">
         <v>20000</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="F54" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C55">
         <v>20000</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="F55" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2221,444 +2256,444 @@
         <v>7</v>
       </c>
       <c r="B56">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C56">
         <v>20000</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E56" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F56" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="C57">
         <v>20000</v>
       </c>
       <c r="D57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E57" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="F57" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B58">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C58">
         <v>20000</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F58" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59">
         <v>20000</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E59" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F59" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C60">
         <v>20000</v>
       </c>
       <c r="D60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E60" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="F60" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C61">
         <v>20000</v>
       </c>
       <c r="D61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E61" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F61" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B62">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C62">
         <v>20000</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F62" t="s">
-        <v>145</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B63">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>20000</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E63" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F63" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C64">
         <v>20000</v>
       </c>
       <c r="D64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E64" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F64" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C65">
         <v>20000</v>
       </c>
       <c r="D65" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E65" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F65" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C66">
         <v>20000</v>
       </c>
       <c r="D66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E66" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C67">
         <v>20000</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E67" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F67" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C68">
         <v>20000</v>
       </c>
       <c r="D68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E68" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F68" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B69">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C69">
         <v>20000</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E69" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F69" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C70">
         <v>20000</v>
       </c>
       <c r="D70" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E70" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F70" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B71">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C71">
         <v>20000</v>
       </c>
       <c r="D71" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F71" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C72">
         <v>20000</v>
       </c>
       <c r="D72" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F72" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B73">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C73">
         <v>20000</v>
       </c>
       <c r="D73" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E73" t="s">
+        <v>228</v>
+      </c>
+      <c r="F73" t="s">
         <v>229</v>
-      </c>
-      <c r="F73" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B74">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C74">
         <v>20000</v>
       </c>
       <c r="D74" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E74" t="s">
         <v>230</v>
       </c>
       <c r="F74" t="s">
-        <v>156</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B75">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C75">
         <v>20000</v>
       </c>
       <c r="D75" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E75" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F75" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B76">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C76">
         <v>20000</v>
       </c>
       <c r="D76" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E76" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="F76" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B77">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C77">
         <v>20000</v>
       </c>
       <c r="D77" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E77" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F77" t="s">
-        <v>159</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B78">
         <v>31</v>
@@ -2667,53 +2702,93 @@
         <v>20000</v>
       </c>
       <c r="D78" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E78" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="F78" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B79">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C79">
         <v>20000</v>
       </c>
       <c r="D79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E79" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="F79" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80">
-        <v>666</v>
+        <v>27</v>
       </c>
       <c r="C80">
         <v>20000</v>
       </c>
       <c r="D80" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" t="s">
+        <v>240</v>
+      </c>
+      <c r="F80" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81">
+        <v>13</v>
+      </c>
+      <c r="C81">
+        <v>20000</v>
+      </c>
+      <c r="D81" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" t="s">
+        <v>242</v>
+      </c>
+      <c r="F81" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82">
+        <v>29</v>
+      </c>
+      <c r="C82">
+        <v>20000</v>
+      </c>
+      <c r="D82" t="s">
         <v>90</v>
       </c>
-      <c r="E80" t="s">
-        <v>235</v>
-      </c>
-      <c r="F80" t="s">
-        <v>162</v>
+      <c r="E82" t="s">
+        <v>228</v>
+      </c>
+      <c r="F82" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
